--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\LostInMadrid\lost-in-madrid\excel-to-json\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6BACDB-9414-41A5-BCF4-3C9C985FF32B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF1E6D-6DEE-4C73-8940-91FBE6F0D5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,10 +1315,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:V23"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">

--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CF1E6D-6DEE-4C73-8940-91FBE6F0D5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040FB9D1-EE79-4B41-95F1-27D37CAF5C8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="279">
   <si>
     <t>aem@alternativaenmarcha.org</t>
   </si>
@@ -219,9 +219,6 @@
     <t>CONTACTO TELEFÓNICO</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, ORIENTACIÓN LABORAL, OCIO Y TIEMPO LIBRE</t>
-  </si>
-  <si>
     <t>ÁLVARO JUNQUERA</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>VISITANDO NUESTRA SEDE, MIERCOLES DE 10,30 A 11,30</t>
   </si>
   <si>
-    <t>ROPA</t>
-  </si>
-  <si>
     <t>MIÉRCOLES SE RECOGE NÚMERO DE ORDEN Y LA SEMANA SIGUIENTE EL LUNES SE ENTREGA LA ROPA. MESES DE VERANO JULIO Y AGOSTO CERRAMOS TAMBIÉN FIESTAS NO ATIENDEN.</t>
   </si>
   <si>
@@ -264,9 +258,6 @@
     <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL, VISITANDO NUESTRA SEDE</t>
   </si>
   <si>
-    <t>VIH/SIDA, MATERIAL PREVENTIVO ITS (LUBRICANTES Y CONDONES MASCULINOS/FEMENINOS</t>
-  </si>
-  <si>
     <t>INFORMACIÓN Y ACOMPAÑAMIENTO PARA VINCULACIÓN AL SISTEMA SANITARIO MADRILEÑO DE POBLACIÓN EN SITUACIÓN ADMINISTRATIVA IRREGULAR VIVIENDO CON EL VIH.</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
     <t>TODAS LAS MAÑANAS, TARDES DE MIÉRCOLES Y VIERNES</t>
   </si>
   <si>
-    <t>ORIENTACIÓN LABORAL, SERVICIO LEGAL, ATENCIÓN PSICOLÓGICA, ATENCIÓN A LA INFANCIA, ATENCIÓN A FAMILIAS</t>
-  </si>
-  <si>
     <t>ROBERTO</t>
   </si>
   <si>
@@ -300,18 +288,12 @@
     <t>TODAS LAS TARDES</t>
   </si>
   <si>
-    <t>ROPA, CLASES DE CASTELLANO, APOYO ESCOLAR, OCIO Y TIEMPO LIBRE</t>
-  </si>
-  <si>
     <t>HORARIOS DE LAS ACTIVIDADES: HTTP://WWW.LAVILLANA.ORG/AGENDA/</t>
   </si>
   <si>
     <t>LA MERCED MIGRACIONES</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, CLASES DE INFORMÁTICA, OTRAS FORMACIONES, ORIENTACIÓN LABORAL, SERVICIO LEGAL, ATENCIÓN A LA MUJER, JÓVENES</t>
-  </si>
-  <si>
     <t>KARLOS SAN PEDRO</t>
   </si>
   <si>
@@ -327,9 +309,6 @@
     <t>VISITANDO NUESTRA SEDE</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, CLASES DE INFORMÁTICA, SERVICIO LEGAL</t>
-  </si>
-  <si>
     <t>JON SANZ LANDALUZE</t>
   </si>
   <si>
@@ -342,60 +321,36 @@
     <t>TODAS LAS MAÑANAS</t>
   </si>
   <si>
-    <t>ALOJAMIENTO, ORIENTACIÓN LABORAL, ACOMPAÑAMIENTO SOCIAL, TRAMITACIÒN DE RENTAS MÍNIMAS, ATENCIÓN A PERSONAS SIN HOGAR</t>
-  </si>
-  <si>
     <t>BEATRIZ ORTIZ</t>
   </si>
   <si>
-    <t>APOYO ESCOLAR, FORMACIÓN PROFESIONAL, ORIENTACIÓN LABORAL, JÓVENES, OCIO Y TIEMPO LIBRE</t>
-  </si>
-  <si>
     <t>MARTA APARICIO</t>
   </si>
   <si>
     <t>LA INGOBERNABLE</t>
   </si>
   <si>
-    <t>ENSEÑANZA DE IDIOMAS, CLASES DE INFORMÁTICA, OTRAS FORMACIONES, ATENCIÓN A LA MUJER, OCIO Y TIEMPO LIBRE, DEPORTE, ACCESO A LA CULTURA, TALLER REPARACION DE BICIS</t>
-  </si>
-  <si>
-    <t>CLASES DE CASTELLANO, APOYO ESCOLAR, FORMACIÓN PROFESIONAL, CLASES DE INFORMÁTICA, ORIENTACIÓN LABORAL, JÓVENES, ATENCIÓN A LA INFANCIA, FORMACIÓN EN OFICIOS</t>
-  </si>
-  <si>
     <t>LA ENREDADERA</t>
   </si>
   <si>
     <t>TETUAN</t>
   </si>
   <si>
-    <t>COMIDA (CESTAS, PACKS ETC.), ROPA, ENSEÑANZA DE IDIOMAS, OCIO Y TIEMPO LIBRE, DEPORTE, ACCESO A LA CULTURA</t>
-  </si>
-  <si>
     <t>ASOCIACIÓN DE PSICOTERAPIA SISTEMICA TRANSCULTURAL. TERAPIAS SIN FRONTERAS</t>
   </si>
   <si>
     <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL, A TRAVÉS DE LA WEB, VISITANDO NUESTRA SEDE</t>
   </si>
   <si>
-    <t>FORMACIÓN PROFESIONAL, ATENCIÓN PSICOLÓGICA, ATENCIÓN PSIQUIÁTRICA, ATENCIÓN A FAMILIAS</t>
-  </si>
-  <si>
     <t>EDUARDO BRIK</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, ENSEÑANZA DE IDIOMAS, APOYO ESCOLAR, CLASES DE INFORMÁTICA, OCIO Y TIEMPO LIBRE, ACCESO A LA CULTURA</t>
-  </si>
-  <si>
     <t>CEPI CENTRO ARGANZUELA (LA RUECA ASOCIACIÓN)</t>
   </si>
   <si>
     <t>LUNES 16-20H DE MARTES A SÁBADOS 10-14 Y 16-20H</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, APOYO ESCOLAR, CLASES DE INFORMÁTICA, OTRAS FORMACIONES, ORIENTACIÓN LABORAL, SERVICIO LEGAL, ATENCIÓN PSICOLÓGICA, ATENCIÓN A LA MUJER, ATENCIÓN A LA INFANCIA, ATENCIÓN A FAMILIAS</t>
-  </si>
-  <si>
     <t>LAURA COMES CEREZO</t>
   </si>
   <si>
@@ -405,9 +360,6 @@
     <t>A TRAVÉS DE LA WEB</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, SERVICIO LEGAL, VIH/SIDA, ADICCIONES, ATENCIÓN PSICOLÓGICA, JÓVENES, ATENCIÓN SOCIAL, ACTIVIDADES DE SOCIALIZACIÓN, ATENCIÓN EN TEMAS DE ASILO Y REFUGIO, EXTRANJERÍA, ETC.</t>
-  </si>
-  <si>
     <t>PRUEBA DE VIH</t>
   </si>
   <si>
@@ -423,9 +375,6 @@
     <t>ENVIANDO UN E-MAIL</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, ENSEÑANZA DE IDIOMAS</t>
-  </si>
-  <si>
     <t>MARÍA DE LA CRUZ</t>
   </si>
   <si>
@@ -435,9 +384,6 @@
     <t>TARDES DE LUNES A JUEVES</t>
   </si>
   <si>
-    <t>APOYO ESCOLAR, ATENCIÓN A LA INFANCIA, ATENCIÓN A FAMILIAS, OCIO Y TIEMPO LIBRE</t>
-  </si>
-  <si>
     <t>PERSONAS EN SITUACIÓN Y/O RIESGO DE EXCLUSIÓN SOCIAL</t>
   </si>
   <si>
@@ -450,9 +396,6 @@
     <t>MIÉRCOLES Y VIERNES DE 17H A 21H</t>
   </si>
   <si>
-    <t>ENSEÑANZA DE IDIOMAS, OTRAS FORMACIONES, ATENCIÓN A LA MUJER, OCIO Y TIEMPO LIBRE</t>
-  </si>
-  <si>
     <t>MATTEO RICCI UGATTI</t>
   </si>
   <si>
@@ -465,9 +408,6 @@
     <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL, EN MAÑANAS, TARDES MARTES 19:30 A 21 NO CITA PREVIA.</t>
   </si>
   <si>
-    <t>SERVICIO LEGAL, ASESORAMIENTO LEGAL Y ACOMPAÑAMIENTO CASOS RACISMO Y XENOFOBIA, Y EXTRANJERÍA. VISITAS CIE ALUCHE. ESPACIO EMPODERAMIENTO PERSONAS NO BLANCAS GRUPO PSICOSOCIAL.</t>
-  </si>
-  <si>
     <t>DANA</t>
   </si>
   <si>
@@ -480,15 +420,9 @@
     <t>MARTES Y JUEVES DE 19:30 A 21 HORAS</t>
   </si>
   <si>
-    <t>CLASES DE CASTELLANO, ENSEÑANZA DE IDIOMAS, FORMACIÓN PROFESIONAL, CLASES DE INFORMÁTICA, OTRAS FORMACIONES, SERVICIO LEGAL, ATENCIÓN A FAMILIAS, OCIO Y TIEMPO LIBRE, ACCESO A LA CULTURA</t>
-  </si>
-  <si>
     <t>JOSÉ MARÍA</t>
   </si>
   <si>
-    <t>APOYO ESCOLAR, ATENCIÓN PSICOLÓGICA, JÓVENES, ATENCIÓN A LA INFANCIA, ATENCIÓN A FAMILIAS, OCIO Y TIEMPO LIBRE</t>
-  </si>
-  <si>
     <t>MONICA PICHARDO GALAN</t>
   </si>
   <si>
@@ -555,9 +489,6 @@
     <t>wayOfContact</t>
   </si>
   <si>
-    <t>services</t>
-  </si>
-  <si>
     <t>additionalInfo</t>
   </si>
   <si>
@@ -621,39 +552,6 @@
     <t>ES</t>
   </si>
   <si>
-    <t>CAT1</t>
-  </si>
-  <si>
-    <t>CAT2</t>
-  </si>
-  <si>
-    <t>CAT3</t>
-  </si>
-  <si>
-    <t>CAT4</t>
-  </si>
-  <si>
-    <t>CAT5</t>
-  </si>
-  <si>
-    <t>CAT6</t>
-  </si>
-  <si>
-    <t>CAT7</t>
-  </si>
-  <si>
-    <t>CAT8</t>
-  </si>
-  <si>
-    <t>CAT9</t>
-  </si>
-  <si>
-    <t>CAT10</t>
-  </si>
-  <si>
-    <t>CAT11</t>
-  </si>
-  <si>
     <t>languages[]</t>
   </si>
   <si>
@@ -672,21 +570,6 @@
     <t>categories[]</t>
   </si>
   <si>
-    <t>CAT2;CAT5;CAT11</t>
-  </si>
-  <si>
-    <t>CAT5;CAT6</t>
-  </si>
-  <si>
-    <t>CAT9;CAT10</t>
-  </si>
-  <si>
-    <t>CAT3;CAT7;CAT10</t>
-  </si>
-  <si>
-    <t>CAT7;CAT2</t>
-  </si>
-  <si>
     <t>BLAS DE OTERO, 66 28017, Madrid</t>
   </si>
   <si>
@@ -886,6 +769,102 @@
   </si>
   <si>
     <t>-3.6892258</t>
+  </si>
+  <si>
+    <t>services[]</t>
+  </si>
+  <si>
+    <t>targettedChild</t>
+  </si>
+  <si>
+    <t>targettedWomen</t>
+  </si>
+  <si>
+    <t>targettedOrigins[]</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>cat1</t>
+  </si>
+  <si>
+    <t>cat2;cat5;cat11</t>
+  </si>
+  <si>
+    <t>cat3</t>
+  </si>
+  <si>
+    <t>cat4</t>
+  </si>
+  <si>
+    <t>cat5;cat6</t>
+  </si>
+  <si>
+    <t>cat6</t>
+  </si>
+  <si>
+    <t>cat7</t>
+  </si>
+  <si>
+    <t>cat8</t>
+  </si>
+  <si>
+    <t>cat9;cat10</t>
+  </si>
+  <si>
+    <t>cat10</t>
+  </si>
+  <si>
+    <t>cat11</t>
+  </si>
+  <si>
+    <t>cat2</t>
+  </si>
+  <si>
+    <t>cat3;cat7;cat10</t>
+  </si>
+  <si>
+    <t>cat5</t>
+  </si>
+  <si>
+    <t>cat7;cat2</t>
+  </si>
+  <si>
+    <t>cat9</t>
+  </si>
+  <si>
+    <t>srv11;srv15</t>
+  </si>
+  <si>
+    <t>srv21</t>
+  </si>
+  <si>
+    <t>srv31</t>
+  </si>
+  <si>
+    <t>srv41</t>
+  </si>
+  <si>
+    <t>srv13;srv14</t>
+  </si>
+  <si>
+    <t>srv22</t>
+  </si>
+  <si>
+    <t>srv31;srv33</t>
+  </si>
+  <si>
+    <t>srv42</t>
+  </si>
+  <si>
+    <t>srv23</t>
   </si>
 </sst>
 </file>
@@ -958,14 +937,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,87 +1292,103 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>242</v>
+      <c r="X1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1">
         <v>28017</v>
@@ -1417,7 +1414,7 @@
         <v>59</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>60</v>
@@ -1428,36 +1425,48 @@
       <c r="L2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="V2" s="1">
         <v>914049118</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>244</v>
+      <c r="X2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1474,63 +1483,71 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1">
         <v>28004</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="V3" s="1">
         <v>915220070</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>246</v>
+      <c r="X3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1">
         <v>915930540</v>
@@ -1542,63 +1559,69 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G4" s="1">
         <v>28015</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="V4" s="1">
         <v>915930540</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>248</v>
+      <c r="X4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1">
         <v>914379815</v>
@@ -1608,61 +1631,69 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>28030</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="M5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="1">
         <v>650010300</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>250</v>
+      <c r="X5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1">
         <v>644882198</v>
@@ -1674,63 +1705,69 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="G6" s="1">
         <v>28038</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="M6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="1">
         <v>644882198</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>252</v>
+      <c r="X6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1">
         <v>913555550</v>
@@ -1742,61 +1779,65 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G7" s="1">
         <v>28028</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="1">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="1">
         <v>660528316</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>254</v>
+      <c r="X7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1">
         <v>635736573</v>
@@ -1806,61 +1847,67 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1">
         <v>28029</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R8" s="1">
+        <v>92</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" s="1">
         <v>635736573</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>256</v>
+      <c r="X8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1">
         <v>914672726</v>
@@ -1869,59 +1916,65 @@
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G9" s="1">
         <v>28045</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="R9" s="1">
+        <v>64</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V9" s="1">
         <v>914672626</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>258</v>
+      <c r="X9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1938,61 +1991,65 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="G10" s="1">
         <v>28018</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R10" s="1">
+        <v>64</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="1">
         <v>917772822</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>260</v>
+      <c r="X10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
@@ -2002,54 +2059,60 @@
         <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G11" s="1">
         <v>28014</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="R11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6"/>
       <c r="S11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>262</v>
+      <c r="X11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2066,61 +2129,67 @@
         <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="G12" s="1">
         <v>28029</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="1">
+      <c r="V12" s="1">
         <v>913721506</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>264</v>
+      <c r="X12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -2130,59 +2199,65 @@
         <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G13" s="1">
         <v>28020</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="R13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>266</v>
+      <c r="X13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1">
         <v>914299756</v>
@@ -2194,56 +2269,64 @@
         <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G14" s="1">
         <v>28014</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="R14" s="1">
+        <v>103</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V14" s="1">
         <v>914299756</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>268</v>
+      <c r="X14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2254,67 +2337,75 @@
         <v>913806604</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="G15" s="1">
         <v>28038</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="1">
+      <c r="V15" s="1">
         <v>913806604</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>270</v>
+      <c r="W15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1">
         <v>918286978</v>
@@ -2326,19 +2417,19 @@
         <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="G16" s="1">
         <v>28005</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>61</v>
@@ -2346,41 +2437,47 @@
       <c r="L16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="M16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V16" s="1">
         <v>918286978</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="X16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z16" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="U16" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>272</v>
-      </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1">
         <v>915211174</v>
@@ -2392,63 +2489,67 @@
         <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1">
         <v>28012</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" s="1">
+        <v>109</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="V17" s="1">
         <v>915211174</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="X17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>264</v>
+      <c r="Z17" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -2458,61 +2559,65 @@
         <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="G18" s="1">
         <v>28029</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V18" s="1">
+        <v>699684246</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="1">
-        <v>699684246</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>275</v>
+      <c r="Z18" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C19" s="1">
         <v>917779661</v>
@@ -2522,19 +2627,19 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="G19" s="1">
         <v>28038</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>61</v>
@@ -2542,43 +2647,53 @@
       <c r="L19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="M19" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="V19" s="1">
         <v>917779661</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>277</v>
+      <c r="X19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -2588,59 +2703,63 @@
         <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="G20" s="1">
         <v>28012</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>279</v>
+      <c r="X20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1">
         <v>915592906</v>
@@ -2652,61 +2771,65 @@
         <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G21" s="1">
         <v>28012</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="R21" s="1">
+        <v>125</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V21" s="1">
         <v>915592906</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>281</v>
+      <c r="X21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1">
         <v>912244837</v>
@@ -2718,56 +2841,62 @@
         <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1">
         <v>28039</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="R22" s="1">
+        <v>75</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" s="1">
         <v>912244837</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>283</v>
+      <c r="X22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2784,19 +2913,19 @@
         <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G23" s="1">
         <v>28029</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>61</v>
@@ -2804,33 +2933,37 @@
       <c r="L23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R23" s="1">
+      <c r="M23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V23" s="1">
         <v>911684483</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>285</v>
+      <c r="X23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040FB9D1-EE79-4B41-95F1-27D37CAF5C8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FF9D6C-FBFF-4CDC-A551-B85A87BCCBC4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Services" sheetId="3" r:id="rId3"/>
+    <sheet name="Specialities" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Services!$A$1:$F$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="352">
   <si>
     <t>aem@alternativaenmarcha.org</t>
   </si>
@@ -865,23 +872,260 @@
   </si>
   <si>
     <t>srv23</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Servicios básicos</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Francais</t>
+  </si>
+  <si>
+    <t>Arab</t>
+  </si>
+  <si>
+    <t>srv11</t>
+  </si>
+  <si>
+    <t>Alojamiento</t>
+  </si>
+  <si>
+    <t>srv12</t>
+  </si>
+  <si>
+    <t>Comedores</t>
+  </si>
+  <si>
+    <t>srv13</t>
+  </si>
+  <si>
+    <t>Comida</t>
+  </si>
+  <si>
+    <t>srv14</t>
+  </si>
+  <si>
+    <t>Productos de higiene</t>
+  </si>
+  <si>
+    <t>srv15</t>
+  </si>
+  <si>
+    <t>Duchas públicas</t>
+  </si>
+  <si>
+    <t>srv16</t>
+  </si>
+  <si>
+    <t>Ropa</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Atención médica general</t>
+  </si>
+  <si>
+    <t>SIDA/VIH</t>
+  </si>
+  <si>
+    <t>Adicciones</t>
+  </si>
+  <si>
+    <t>srv24</t>
+  </si>
+  <si>
+    <t>Dentista</t>
+  </si>
+  <si>
+    <t>srv25</t>
+  </si>
+  <si>
+    <t>Oculista/gafas</t>
+  </si>
+  <si>
+    <t>srv26</t>
+  </si>
+  <si>
+    <t>Vacunación</t>
+  </si>
+  <si>
+    <t>srv27</t>
+  </si>
+  <si>
+    <t>Ginecología</t>
+  </si>
+  <si>
+    <t>srv28</t>
+  </si>
+  <si>
+    <t>Atención psicológica</t>
+  </si>
+  <si>
+    <t>srv29</t>
+  </si>
+  <si>
+    <t>Atención psiquiátrica</t>
+  </si>
+  <si>
+    <t>Educacion</t>
+  </si>
+  <si>
+    <t>Clases de español</t>
+  </si>
+  <si>
+    <t>srv32</t>
+  </si>
+  <si>
+    <t>Clases de otros idiomas</t>
+  </si>
+  <si>
+    <t>srv33</t>
+  </si>
+  <si>
+    <t>Clases de informática</t>
+  </si>
+  <si>
+    <t>srv34</t>
+  </si>
+  <si>
+    <t>Apoyo y material escolar</t>
+  </si>
+  <si>
+    <t>srv35</t>
+  </si>
+  <si>
+    <t>Formación profesional</t>
+  </si>
+  <si>
+    <t>srv36</t>
+  </si>
+  <si>
+    <t>Otras formaciones</t>
+  </si>
+  <si>
+    <t>Ocio</t>
+  </si>
+  <si>
+    <t>Deportes</t>
+  </si>
+  <si>
+    <t>Acceso a la cultura</t>
+  </si>
+  <si>
+    <t>srv43</t>
+  </si>
+  <si>
+    <t>Tiempo libre</t>
+  </si>
+  <si>
+    <t>srv44</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Información legal y asistencia jurídica</t>
+  </si>
+  <si>
+    <t>Información y orientación laboral</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Infancia y jóvenes</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>LGTBIQ+</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>spe111</t>
+  </si>
+  <si>
+    <t>spe112</t>
+  </si>
+  <si>
+    <t>spe113</t>
+  </si>
+  <si>
+    <t>spe121</t>
+  </si>
+  <si>
+    <t>spe122</t>
+  </si>
+  <si>
+    <t>Specialty 111</t>
+  </si>
+  <si>
+    <t>Specialty 112</t>
+  </si>
+  <si>
+    <t>Specialty 113</t>
+  </si>
+  <si>
+    <t>Specialty 121</t>
+  </si>
+  <si>
+    <t>Specialty 122</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -937,16 +1181,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,58 +1540,58 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="13.5546875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>179</v>
       </c>
       <c r="N1" s="5" t="s">
@@ -1363,1606 +1609,1606 @@
       <c r="R1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>914049118</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>28017</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="7" t="b">
+      <c r="P2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="7" t="b">
+      <c r="Q2" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="7">
         <v>914049118</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>915220070</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>28004</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="7">
         <v>915220070</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>915930540</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>28015</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="2" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="7">
         <v>915930540</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="7" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>914379815</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>28030</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P5" s="7" t="b">
+      <c r="P5" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="1" t="s">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="7">
         <v>650010300</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="7">
         <v>644882198</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>28038</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7" t="b">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="1" t="s">
+      <c r="R6" s="8"/>
+      <c r="S6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="7">
         <v>644882198</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>913555550</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>28028</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7" t="s">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="2" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
+      <c r="T7" s="7"/>
+      <c r="U7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="7">
         <v>660528316</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>635736573</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>28029</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P8" s="7" t="b">
+      <c r="P8" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="1" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1" t="s">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="7">
         <v>635736573</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>914672726</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>28045</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6" t="s">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="7">
         <v>914672626</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="W9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Y9" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="7">
         <v>917772822</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>28018</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="1" t="s">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1" t="s">
+      <c r="T10" s="7"/>
+      <c r="U10" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="7">
         <v>917772822</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>28014</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7" t="b">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="1" t="s">
+      <c r="R11" s="8"/>
+      <c r="S11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1" t="s">
+      <c r="T11" s="7"/>
+      <c r="U11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
+      <c r="V11" s="7"/>
+      <c r="W11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="7" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="7">
         <v>913721506</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>28029</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="s">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P12" s="7" t="b">
+      <c r="P12" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="1" t="s">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1" t="s">
+      <c r="T12" s="7"/>
+      <c r="U12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="7">
         <v>913721506</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>28020</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="1" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1" t="s">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
+      <c r="V13" s="7"/>
+      <c r="W13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="7" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="7">
         <v>914299756</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>28014</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7" t="b">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="1" t="s">
+      <c r="R14" s="8"/>
+      <c r="S14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1" t="s">
+      <c r="T14" s="7"/>
+      <c r="U14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="7">
         <v>914299756</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="W14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="7">
         <v>913806604</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>28038</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7" t="s">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1" t="s">
+      <c r="T15" s="7"/>
+      <c r="U15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="7">
         <v>913806604</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="7">
         <v>918286978</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>28005</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="1" t="s">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1" t="s">
+      <c r="T16" s="7"/>
+      <c r="U16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="7">
         <v>918286978</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="7">
         <v>915211174</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>28012</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7" t="s">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="2" t="s">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="T17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="7">
         <v>915211174</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>28029</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6" t="s">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="1" t="s">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
+      <c r="T18" s="7"/>
+      <c r="U18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="7">
         <v>699684246</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="7">
         <v>917779661</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>28038</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P19" s="7" t="b">
+      <c r="P19" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q19" s="7" t="b">
+      <c r="Q19" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="1" t="s">
+      <c r="R19" s="8"/>
+      <c r="S19" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="7">
         <v>917779661</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="X19" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>28012</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="7" t="s">
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="2" t="s">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1" t="s">
+      <c r="T20" s="7"/>
+      <c r="U20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
+      <c r="V20" s="7"/>
+      <c r="W20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="7">
         <v>915592906</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="7">
         <v>28012</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7" t="s">
+      <c r="N21" s="8"/>
+      <c r="O21" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="2" t="s">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1" t="s">
+      <c r="T21" s="7"/>
+      <c r="U21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="7">
         <v>915592906</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="X21" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="7">
         <v>912244837</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>28039</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6" t="s">
+      <c r="N22" s="8"/>
+      <c r="O22" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P22" s="7" t="b">
+      <c r="P22" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="1" t="s">
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
+      <c r="T22" s="7"/>
+      <c r="U22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="7">
         <v>912244837</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="X22" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="7">
         <v>911684483</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>28029</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6" t="s">
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="1" t="s">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1" t="s">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="7">
         <v>911684483</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="X23" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="7" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2970,4 +3216,899 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4292A902-63B0-4C12-AB71-49E517B57155}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E11" xr:uid="{F2747FD6-900C-4C5E-A9C9-1F8D01AA6874}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8087170B-0D62-4A26-AF96-7842979EAF6C}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F26" xr:uid="{B051B58A-B2A3-4D08-85F4-38B089A99FFA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
+      <sortCondition ref="A1:A26"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25FDD37-A4BE-4965-B89B-3C69ADADE0E8}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAA7586-C1A6-47B7-8DF8-6F059C83FD81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B48EF1-E9C4-4684-8871-65B8E1224E66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="Services" sheetId="3" r:id="rId3"/>
+    <sheet name="WaysOfContact" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$E$11</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="300">
   <si>
     <t>aem@alternativaenmarcha.org</t>
   </si>
@@ -42,9 +43,6 @@
     <t>www.alternativaenmarcha.org</t>
   </si>
   <si>
-    <t>coordinador@alternativaenmarcha.org</t>
-  </si>
-  <si>
     <t>HERMANDAD DEL REFUGIO DE MADRID</t>
   </si>
   <si>
@@ -60,15 +58,9 @@
     <t>http://www.fundaciontriangulo.org/</t>
   </si>
   <si>
-    <t>jorge.alamo@fundaciontriangulo.es</t>
-  </si>
-  <si>
     <t>apoyo@asociacionapoyo.org</t>
   </si>
   <si>
-    <t>roenred@asociacionapoyo.org</t>
-  </si>
-  <si>
     <t>info@lavillana.org</t>
   </si>
   <si>
@@ -81,18 +73,12 @@
     <t>www.lamercedmigraciones.org</t>
   </si>
   <si>
-    <t>karlossanpedro@lamercedmigraciones.org</t>
-  </si>
-  <si>
     <t>jsanzlan@ucm.es</t>
   </si>
   <si>
     <t>info@asociacionrealidades.org</t>
   </si>
   <si>
-    <t>comunicacion@asociacionrealidades.org</t>
-  </si>
-  <si>
     <t>ASOCIACIÓN CULTURAL LA KALLE</t>
   </si>
   <si>
@@ -108,9 +94,6 @@
     <t>www.ingobernable.net</t>
   </si>
   <si>
-    <t xml:space="preserve"> bienvenida@ingobernable.net</t>
-  </si>
-  <si>
     <t>ASOCIACION CULTURAL NORTE JOVEN</t>
   </si>
   <si>
@@ -120,9 +103,6 @@
     <t>www.nortejoven.org</t>
   </si>
   <si>
-    <t>EVA JUAREZ</t>
-  </si>
-  <si>
     <t>enredadera@riseup.net</t>
   </si>
   <si>
@@ -135,27 +115,18 @@
     <t>www.terapiasinfronteras.com</t>
   </si>
   <si>
-    <t>terapiasinfronteras@gmail.com</t>
-  </si>
-  <si>
     <t>ASOCIACION CULTURAL GANDALF</t>
   </si>
   <si>
     <t>http://acgandalf-gandalf.blogspot.com.es/</t>
   </si>
   <si>
-    <t>ROSA</t>
-  </si>
-  <si>
     <t>cepiarganzuela@larueca.info</t>
   </si>
   <si>
     <t>www.larueca.info</t>
   </si>
   <si>
-    <t>coordinacioncepi@larueca.info</t>
-  </si>
-  <si>
     <t>administracion@kifkif.info</t>
   </si>
   <si>
@@ -168,9 +139,6 @@
     <t>www.afroaid.net</t>
   </si>
   <si>
-    <t>mcruzrubio@hotmail.com</t>
-  </si>
-  <si>
     <t>cepa.infancia@gmail.com</t>
   </si>
   <si>
@@ -180,18 +148,12 @@
     <t>https://orbitadiversa.wordpress.com/</t>
   </si>
   <si>
-    <t>matteo.ryu@orbitadiversa.org</t>
-  </si>
-  <si>
     <t>info@sosracismomadrid.es</t>
   </si>
   <si>
     <t>www.sosracismomadrid.es</t>
   </si>
   <si>
-    <t>oid@sosracismomadrid.es</t>
-  </si>
-  <si>
     <t>avpalomadehesa@gmail.com</t>
   </si>
   <si>
@@ -207,9 +169,6 @@
     <t>www.valponasca.org</t>
   </si>
   <si>
-    <t>casaplaza@valponasca.org</t>
-  </si>
-  <si>
     <t>ALTERNATIVA EN MARCHA</t>
   </si>
   <si>
@@ -219,15 +178,6 @@
     <t>TODAS LAS MAÑANAS, CON CITA PREVIA TELEFÓNICA</t>
   </si>
   <si>
-    <t>CONTACTO TELEFÓNICO</t>
-  </si>
-  <si>
-    <t>ÁLVARO JUNQUERA</t>
-  </si>
-  <si>
-    <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL</t>
-  </si>
-  <si>
     <t>CORREDERA BAJA DE SAN PABLO 16</t>
   </si>
   <si>
@@ -237,15 +187,9 @@
     <t>MIERCOLES RECOGER NÚMERO, LUNES SIGUIENTE ENTREGA DE ROPA</t>
   </si>
   <si>
-    <t>VISITANDO NUESTRA SEDE, MIERCOLES DE 10,30 A 11,30</t>
-  </si>
-  <si>
     <t>MIÉRCOLES SE RECOGE NÚMERO DE ORDEN Y LA SEMANA SIGUIENTE EL LUNES SE ENTREGA LA ROPA. MESES DE VERANO JULIO Y AGOSTO CERRAMOS TAMBIÉN FIESTAS NO ATIENDEN.</t>
   </si>
   <si>
-    <t>ÁNGELES O MARTA</t>
-  </si>
-  <si>
     <t>FUNDACIÓN TRIÁNGULO MADRID</t>
   </si>
   <si>
@@ -255,15 +199,9 @@
     <t>TODAS LAS MAÑANAS, TODAS LAS TARDES</t>
   </si>
   <si>
-    <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL, VISITANDO NUESTRA SEDE</t>
-  </si>
-  <si>
     <t>INFORMACIÓN Y ACOMPAÑAMIENTO PARA VINCULACIÓN AL SISTEMA SANITARIO MADRILEÑO DE POBLACIÓN EN SITUACIÓN ADMINISTRATIVA IRREGULAR VIVIENDO CON EL VIH.</t>
   </si>
   <si>
-    <t>JORGE ALAMO BARROSO</t>
-  </si>
-  <si>
     <t>ASOCIACIÓN APOYO</t>
   </si>
   <si>
@@ -276,9 +214,6 @@
     <t>TODAS LAS MAÑANAS, TARDES DE MIÉRCOLES Y VIERNES</t>
   </si>
   <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
     <t>LA VILLANA</t>
   </si>
   <si>
@@ -294,9 +229,6 @@
     <t>LA MERCED MIGRACIONES</t>
   </si>
   <si>
-    <t>KARLOS SAN PEDRO</t>
-  </si>
-  <si>
     <t>ESCUELA POPULAR DE ADULTOS DEL BARRIO DEL PILAR</t>
   </si>
   <si>
@@ -306,12 +238,6 @@
     <t>LUNES Y MIERCOLES (10:30-12:00 Y 19:30-21:00) Y MARTES (19:30-20:30)</t>
   </si>
   <si>
-    <t>VISITANDO NUESTRA SEDE</t>
-  </si>
-  <si>
-    <t>JON SANZ LANDALUZE</t>
-  </si>
-  <si>
     <t>ASOCIACIÓN REALIDADES</t>
   </si>
   <si>
@@ -321,12 +247,6 @@
     <t>TODAS LAS MAÑANAS</t>
   </si>
   <si>
-    <t>BEATRIZ ORTIZ</t>
-  </si>
-  <si>
-    <t>MARTA APARICIO</t>
-  </si>
-  <si>
     <t>LA INGOBERNABLE</t>
   </si>
   <si>
@@ -339,45 +259,24 @@
     <t>ASOCIACIÓN DE PSICOTERAPIA SISTEMICA TRANSCULTURAL. TERAPIAS SIN FRONTERAS</t>
   </si>
   <si>
-    <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL, A TRAVÉS DE LA WEB, VISITANDO NUESTRA SEDE</t>
-  </si>
-  <si>
-    <t>EDUARDO BRIK</t>
-  </si>
-  <si>
     <t>CEPI CENTRO ARGANZUELA (LA RUECA ASOCIACIÓN)</t>
   </si>
   <si>
     <t>LUNES 16-20H DE MARTES A SÁBADOS 10-14 Y 16-20H</t>
   </si>
   <si>
-    <t>LAURA COMES CEREZO</t>
-  </si>
-  <si>
     <t>KIFKIF ASOCIACIÓN DE MIGRANTES Y REFUGIADOS LGBT DE LA COMUNIDAD DE MADRID</t>
   </si>
   <si>
-    <t>A TRAVÉS DE LA WEB</t>
-  </si>
-  <si>
     <t>PRUEBA DE VIH</t>
   </si>
   <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
     <t>AFROAID</t>
   </si>
   <si>
     <t>FINES DE SEMANA</t>
   </si>
   <si>
-    <t>ENVIANDO UN E-MAIL</t>
-  </si>
-  <si>
-    <t>MARÍA DE LA CRUZ</t>
-  </si>
-  <si>
     <t>ASOCIACIÓN CEPA-PUENTE DE VALLECAS</t>
   </si>
   <si>
@@ -387,30 +286,18 @@
     <t>PERSONAS EN SITUACIÓN Y/O RIESGO DE EXCLUSIÓN SOCIAL</t>
   </si>
   <si>
-    <t>BELÉN CAÑERO</t>
-  </si>
-  <si>
     <t>ORBITA DIVERSA</t>
   </si>
   <si>
     <t>MIÉRCOLES Y VIERNES DE 17H A 21H</t>
   </si>
   <si>
-    <t>MATTEO RICCI UGATTI</t>
-  </si>
-  <si>
     <t>SOS RACISMO MADRID</t>
   </si>
   <si>
     <t>TODAS LAS MAÑANAS, MAÑANAS L-J (CITA PREVIA) Y TARDES MARTES 19:30 A 21</t>
   </si>
   <si>
-    <t>CONTACTO TELEFÓNICO, ENVIANDO UN E-MAIL, EN MAÑANAS, TARDES MARTES 19:30 A 21 NO CITA PREVIA.</t>
-  </si>
-  <si>
-    <t>DANA</t>
-  </si>
-  <si>
     <t>ASOCIACIÓN VECINAL PALOMA DEHESA LA VILLA</t>
   </si>
   <si>
@@ -420,12 +307,6 @@
     <t>MARTES Y JUEVES DE 19:30 A 21 HORAS</t>
   </si>
   <si>
-    <t>JOSÉ MARÍA</t>
-  </si>
-  <si>
-    <t>MONICA PICHARDO GALAN</t>
-  </si>
-  <si>
     <t>www.asociacionrealidades.org</t>
   </si>
   <si>
@@ -486,21 +367,9 @@
     <t>priorAppointment</t>
   </si>
   <si>
-    <t>wayOfContact</t>
-  </si>
-  <si>
     <t>additionalInfo</t>
   </si>
   <si>
-    <t>contactPerson</t>
-  </si>
-  <si>
-    <t>contactPhone</t>
-  </si>
-  <si>
-    <t>contactEmail</t>
-  </si>
-  <si>
     <t>fullAddress</t>
   </si>
   <si>
@@ -783,15 +652,9 @@
     <t>targettedOrigins[]</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>VN</t>
   </si>
   <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>cat1</t>
   </si>
   <si>
@@ -936,9 +799,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>languages[]2</t>
-  </si>
-  <si>
     <t>cat1;cat10</t>
   </si>
   <si>
@@ -1018,6 +878,63 @@
   </si>
   <si>
     <t>svc211;svc215</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>visit</t>
+  </si>
+  <si>
+    <t>waysOfContact[]</t>
+  </si>
+  <si>
+    <t>phone;visit;email</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>visit;email</t>
+  </si>
+  <si>
+    <t>phone;visit</t>
+  </si>
+  <si>
+    <t>phone;email</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>visit;email;phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Visitar sede</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>PE;EQ</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1108,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="49">
     <dxf>
       <font>
         <b val="0"/>
@@ -1204,28 +1121,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1239,26 +1139,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1272,28 +1157,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1307,28 +1175,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1342,28 +1193,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF222222"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1377,754 +1211,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2138,22 +1229,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="Verdana"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2427,6 +1507,829 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -2450,8 +2353,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{496FABF9-B904-41A0-9A3A-69F72B1F559C}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="wholeTable" dxfId="48"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2466,70 +2369,80 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA63940B-6736-4FFE-A90E-7DD2482B386E}" name="Table356" displayName="Table356" ref="A1:Z23" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="A1:Z23" xr:uid="{A1ABD4CF-8797-418F-84EC-F4D4132E0C98}"/>
-  <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{3CB7DF17-C103-48B7-B2BB-C03CA4ACA952}" name="ID" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{CB14816A-3E7B-4E30-B665-DD7CC64FC8FD}" name="orgName" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{9EE72959-C45C-47E7-921A-B7773AE82B21}" name="orgPhone" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{B008E3AC-8AAE-4D58-83F7-27986BD47CA6}" name="orgEmail" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{1CA78420-0C1C-4253-AE52-9F41B8939CA9}" name="orgWeb" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{68707F56-DA94-4407-B912-2963135E1136}" name="address" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{1AA6B013-D85D-417E-9A62-EF126E1AE66C}" name="postalCode" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{7D5976D5-FD34-4EBF-BA5B-F1BD6A5FCA4A}" name="district" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{4936B07E-6796-4057-A7AF-F9A5D9C459DC}" name="locality" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{E2316772-3F2F-415B-ACD3-89401FE74A44}" name="timeTable" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{756F15D8-2937-48DB-928D-C481CF43D8C2}" name="priorAppointment" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{0787C7F9-7719-46E1-A52B-0B7D48AD2DC0}" name="wayOfContact" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{2F4C62C8-2BEC-48D9-AD1F-00381CE97362}" name="categories[]" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{CD5E1452-5F2C-4B7B-8A48-81627D7F629E}" name="services[]" dataDxfId="0"/>
-    <tableColumn id="15" xr3:uid="{8AFE3F12-BA0B-42D4-A913-A52314BBCAF4}" name="languages[]" dataDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{89630743-4A48-4707-AC78-3F737BCC5DFC}" name="targettedChild" dataDxfId="11"/>
-    <tableColumn id="17" xr3:uid="{47BB8DC5-0D94-41D6-ABA9-98DD02A8A0B1}" name="targettedWomen" dataDxfId="10"/>
-    <tableColumn id="18" xr3:uid="{C1678D26-A0C0-446D-8239-C35E55E07D73}" name="targettedOrigins[]" dataDxfId="9"/>
-    <tableColumn id="19" xr3:uid="{A640E3C0-187B-4433-8341-744836D8937E}" name="languages[]2" dataDxfId="8"/>
-    <tableColumn id="20" xr3:uid="{30A58EE2-5025-4DEE-B2E8-828F12E9E6A6}" name="additionalInfo" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{4DC244F5-0FCD-47F2-AC19-958671CD0FC6}" name="contactPerson" dataDxfId="6"/>
-    <tableColumn id="22" xr3:uid="{B04B0B0E-CCE7-46D4-A00A-94F458FA14E3}" name="contactPhone" dataDxfId="5"/>
-    <tableColumn id="23" xr3:uid="{BF5F7B5D-854C-401B-916C-DC1B9F5214B5}" name="contactEmail" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{1D038E44-40C3-425C-A8C1-32D782986A58}" name="fullAddress" dataDxfId="3"/>
-    <tableColumn id="25" xr3:uid="{C9080C18-D97E-4347-A518-16763BF326D2}" name="geocode.lat" dataDxfId="2"/>
-    <tableColumn id="26" xr3:uid="{B2CBB689-92E1-4156-9126-3417F38FA8D2}" name="geocode.lng" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA63940B-6736-4FFE-A90E-7DD2482B386E}" name="Table356" displayName="Table356" ref="A1:V23" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="A1:V23" xr:uid="{A1ABD4CF-8797-418F-84EC-F4D4132E0C98}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{3CB7DF17-C103-48B7-B2BB-C03CA4ACA952}" name="ID" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{CB14816A-3E7B-4E30-B665-DD7CC64FC8FD}" name="orgName" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{9EE72959-C45C-47E7-921A-B7773AE82B21}" name="orgPhone" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{B008E3AC-8AAE-4D58-83F7-27986BD47CA6}" name="orgEmail" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{1CA78420-0C1C-4253-AE52-9F41B8939CA9}" name="orgWeb" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{68707F56-DA94-4407-B912-2963135E1136}" name="address" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{1AA6B013-D85D-417E-9A62-EF126E1AE66C}" name="postalCode" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{7D5976D5-FD34-4EBF-BA5B-F1BD6A5FCA4A}" name="district" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{4936B07E-6796-4057-A7AF-F9A5D9C459DC}" name="locality" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{E2316772-3F2F-415B-ACD3-89401FE74A44}" name="timeTable" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{756F15D8-2937-48DB-928D-C481CF43D8C2}" name="priorAppointment" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{0787C7F9-7719-46E1-A52B-0B7D48AD2DC0}" name="waysOfContact[]" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{2F4C62C8-2BEC-48D9-AD1F-00381CE97362}" name="categories[]" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{CD5E1452-5F2C-4B7B-8A48-81627D7F629E}" name="services[]" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{8AFE3F12-BA0B-42D4-A913-A52314BBCAF4}" name="languages[]" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{89630743-4A48-4707-AC78-3F737BCC5DFC}" name="targettedChild" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{47BB8DC5-0D94-41D6-ABA9-98DD02A8A0B1}" name="targettedWomen" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{C1678D26-A0C0-446D-8239-C35E55E07D73}" name="targettedOrigins[]" dataDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{30A58EE2-5025-4DEE-B2E8-828F12E9E6A6}" name="additionalInfo" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{1D038E44-40C3-425C-A8C1-32D782986A58}" name="fullAddress" dataDxfId="24"/>
+    <tableColumn id="25" xr3:uid="{C9080C18-D97E-4347-A518-16763BF326D2}" name="geocode.lat" dataDxfId="23"/>
+    <tableColumn id="26" xr3:uid="{B2CBB689-92E1-4156-9126-3417F38FA8D2}" name="geocode.lng" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4330DA9B-DBFA-4512-8AC8-B56D06C6B546}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4330DA9B-DBFA-4512-8AC8-B56D06C6B546}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A1:E11" xr:uid="{F2747FD6-900C-4C5E-A9C9-1F8D01AA6874}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8764652D-E4F6-423B-942A-B683684BCE4E}" name="key" dataDxfId="41">
+    <tableColumn id="1" xr3:uid="{8764652D-E4F6-423B-942A-B683684BCE4E}" name="key" dataDxfId="19">
       <calculatedColumnFormula>IF(COUNTA($B2:$E2)&gt;0,CONCATENATE("cat",ROW($A2)-1),"Fill in the labels!")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0234D888-8E22-4A46-92A9-3F3E8016AABE}" name="ES" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{A2B9ED5E-BEF6-4B3E-ABE5-8AFBF5E5C9AE}" name="EN" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{1547F134-074B-4076-A6B7-0618CD380258}" name="FR" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{36F21E3C-AB35-42B2-BD33-491D2B5684F6}" name="AR" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{0234D888-8E22-4A46-92A9-3F3E8016AABE}" name="ES" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{A2B9ED5E-BEF6-4B3E-ABE5-8AFBF5E5C9AE}" name="EN" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{1547F134-074B-4076-A6B7-0618CD380258}" name="FR" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{36F21E3C-AB35-42B2-BD33-491D2B5684F6}" name="AR" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99D38ADA-28EA-465E-86CA-7E0B3EEABA6E}" name="Table2" displayName="Table2" ref="A1:F26" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{99D38ADA-28EA-465E-86CA-7E0B3EEABA6E}" name="Table2" displayName="Table2" ref="A1:F26" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:F26" xr:uid="{B051B58A-B2A3-4D08-85F4-38B089A99FFA}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FF7724D2-EC04-4166-BE7E-2898399F3162}" name="key" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{FF7724D2-EC04-4166-BE7E-2898399F3162}" name="key" dataDxfId="12">
       <calculatedColumnFormula>IF(COUNTA($B2:$F2)&gt;0,CONCATENATE(SUBSTITUTE($B2,"cat","svc"),ROW($A2)-1),"Fill in the labels!")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F18C4B95-D23B-499C-86CF-15D60C88F2D3}" name="category" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{327D80F4-5BD1-4BDE-8A3E-CD3F730771F6}" name="ES" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{F2837076-9980-4585-9F06-CADA357FC0B4}" name="EN" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{498DF2BB-4BB9-471A-86FD-85B0C03A25F8}" name="FR" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{D7696F44-A7F6-4D18-97C7-B91855F4E251}" name="AR" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{F18C4B95-D23B-499C-86CF-15D60C88F2D3}" name="category" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{327D80F4-5BD1-4BDE-8A3E-CD3F730771F6}" name="ES" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F2837076-9980-4585-9F06-CADA357FC0B4}" name="EN" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{498DF2BB-4BB9-471A-86FD-85B0C03A25F8}" name="FR" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D7696F44-A7F6-4D18-97C7-B91855F4E251}" name="AR" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8E10570F-CE19-45DA-811F-44BC561B3852}" name="Table3" displayName="Table3" ref="A1:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E4" xr:uid="{909634E3-F8E7-4E35-94A3-CB03750CF914}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5FA2E1EB-F1DD-49E8-B16C-82A30AC12348}" name="key" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D2EC25B9-7851-43C3-AD38-D134E2570838}" name="ES" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4F29344B-25BF-4F82-BD90-1E2408FA5079}" name="EN" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F033F212-3AF0-4BE1-8464-7CBCB74414BE}" name="FR" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{5E0594C2-92DA-4F82-A581-BA29895986D0}" name="AR" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2833,121 +2746,105 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1"/>
-    <col min="21" max="21" width="18.140625" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>150</v>
+        <v>283</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6">
         <v>914049118</v>
@@ -2959,34 +2856,34 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="G2" s="6">
         <v>28017</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="P2" s="7" t="b">
         <v>1</v>
@@ -2995,296 +2892,248 @@
         <v>1</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="T2" s="6"/>
+        <v>299</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="U2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="6">
-        <v>914049118</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>915220070</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="G3" s="6">
         <v>28004</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="6">
-        <v>915220070</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C4" s="6">
         <v>915930540</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="G4" s="6">
         <v>28015</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>312</v>
+        <v>265</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="6" t="s">
-        <v>174</v>
+        <v>54</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="6">
-        <v>915930540</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6">
         <v>914379815</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G5" s="6">
         <v>28030</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="U5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="V5" s="6">
-        <v>650010300</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6">
         <v>644882198</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="G6" s="6">
         <v>28038</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7" t="b">
@@ -3292,935 +3141,785 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" s="6" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="V6" s="6">
-        <v>644882198</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6">
         <v>913555550</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="G7" s="6">
         <v>28028</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>73</v>
+        <v>285</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="T7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="U7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" s="6">
-        <v>660528316</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y7" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6">
         <v>635736573</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="G8" s="6">
         <v>28029</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="K8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>90</v>
+        <v>286</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="V8" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="V8" s="6">
-        <v>635736573</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z8" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C9" s="6">
         <v>914672726</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="G9" s="6">
         <v>28045</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K9" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T9" s="6"/>
+        <v>291</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="U9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="V9" s="6">
-        <v>914672626</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
         <v>917772822</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="G10" s="6">
         <v>28018</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K10" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="U10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="V10" s="6">
-        <v>917772822</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z10" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="G11" s="6">
         <v>28014</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="7"/>
-      <c r="S11" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="U11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z11" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="V11" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
         <v>913721506</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="G12" s="6">
         <v>28029</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K12" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>318</v>
+        <v>271</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P12" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T12" s="6"/>
+      <c r="R12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="U12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="6">
-        <v>913721506</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y12" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="G13" s="6">
         <v>28020</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="U13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="V13" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C14" s="6">
         <v>914299756</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="G14" s="6">
         <v>28014</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K14" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="7"/>
-      <c r="S14" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="U14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="V14" s="6">
-        <v>914299756</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6">
         <v>913806604</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="G15" s="6">
         <v>28038</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K15" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>63</v>
+        <v>285</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="T15" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="U15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" s="6">
-        <v>913806604</v>
-      </c>
-      <c r="W15" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="X15" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z15" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C16" s="6">
         <v>918286978</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="G16" s="6">
         <v>28005</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="K16" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="U16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="V16" s="6">
-        <v>918286978</v>
-      </c>
-      <c r="W16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="X16" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y16" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="V16" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C17" s="6">
         <v>915211174</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="G17" s="6">
         <v>28012</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K17" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
       <c r="S17" s="6" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="V17" s="6">
-        <v>915211174</v>
-      </c>
-      <c r="W17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="X17" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="Z17" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="V17" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="G18" s="6">
         <v>28029</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="K18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>306</v>
+        <v>259</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="U18" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="V18" s="6">
-        <v>699684246</v>
-      </c>
-      <c r="W18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="X18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="V18" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C19" s="6">
         <v>917779661</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="G19" s="6">
         <v>28038</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="K19" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>61</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="b">
         <v>1</v>
@@ -4228,316 +3927,260 @@
       <c r="Q19" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="S19" s="6" t="s">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="V19" s="6">
-        <v>917779661</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="X19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y19" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z19" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="G20" s="6">
         <v>28012</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="K20" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="T20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="U20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="X20" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y20" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="V20" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C21" s="6">
         <v>915592906</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="G21" s="6">
         <v>28012</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="K21" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="T21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="U21" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="V21" s="6">
-        <v>915592906</v>
-      </c>
-      <c r="W21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y21" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z21" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="V21" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C22" s="6">
         <v>912244837</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="G22" s="6">
         <v>28039</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="K22" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>73</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>326</v>
+        <v>279</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="b">
         <v>1</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="T22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="U22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="V22" s="6">
-        <v>912244837</v>
-      </c>
-      <c r="W22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="X22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="V22" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="Y22" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z22" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C23" s="15">
         <v>911684483</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G23" s="15">
         <v>28029</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K23" s="15" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
-      <c r="S23" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="T23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15" t="s">
+        <v>155</v>
+      </c>
       <c r="U23" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="V23" s="15">
-        <v>911684483</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X23" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z23" s="17" t="s">
-        <v>244</v>
+      <c r="V23" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4568,19 +4211,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4589,16 +4232,16 @@
         <v>cat1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4607,16 +4250,16 @@
         <v>cat2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4625,16 +4268,16 @@
         <v>cat3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4643,16 +4286,16 @@
         <v>cat4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4661,16 +4304,16 @@
         <v>cat5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4679,16 +4322,16 @@
         <v>cat6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4697,16 +4340,16 @@
         <v>cat7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4715,16 +4358,16 @@
         <v>cat8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,16 +4376,16 @@
         <v>cat9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4751,16 +4394,16 @@
         <v>cat10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4420,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4792,22 +4435,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4816,19 +4459,19 @@
         <v>svc11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4837,19 +4480,19 @@
         <v>svc12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4858,19 +4501,19 @@
         <v>svc13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4879,19 +4522,19 @@
         <v>svc14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4900,19 +4543,19 @@
         <v>svc15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4921,19 +4564,19 @@
         <v>svc16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4942,19 +4585,19 @@
         <v>svc27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4963,19 +4606,19 @@
         <v>svc28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4984,19 +4627,19 @@
         <v>svc29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5005,19 +4648,19 @@
         <v>svc210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5026,19 +4669,19 @@
         <v>svc211</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>276</v>
+        <v>230</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5047,19 +4690,19 @@
         <v>svc212</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5068,19 +4711,19 @@
         <v>svc213</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5089,19 +4732,19 @@
         <v>svc214</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5110,19 +4753,19 @@
         <v>svc215</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5131,19 +4774,19 @@
         <v>svc316</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5152,19 +4795,19 @@
         <v>svc317</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5173,19 +4816,19 @@
         <v>svc318</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5194,19 +4837,19 @@
         <v>svc319</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5215,19 +4858,19 @@
         <v>svc320</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5236,19 +4879,19 @@
         <v>svc321</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5257,19 +4900,19 @@
         <v>svc422</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5278,19 +4921,19 @@
         <v>svc423</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5299,19 +4942,19 @@
         <v>svc424</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5320,19 +4963,19 @@
         <v>svc425</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5357,4 +5000,97 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A654911-94F6-49D5-AB68-2DA6E1EA6F43}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B48EF1-E9C4-4684-8871-65B8E1224E66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC5662-66FF-42E6-B6D4-E5ACCE2597D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="WaysOfContact" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$E$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$E$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Services!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="296">
   <si>
     <t>aem@alternativaenmarcha.org</t>
   </si>
@@ -782,18 +782,6 @@
   </si>
   <si>
     <t>Información y orientación laboral</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Infancia y jóvenes</t>
-  </si>
-  <si>
-    <t>Familia</t>
-  </si>
-  <si>
-    <t>LGTBIQ+</t>
   </si>
   <si>
     <t>category</t>
@@ -1085,25 +1073,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2400,8 +2383,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4330DA9B-DBFA-4512-8AC8-B56D06C6B546}" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A1:E11" xr:uid="{F2747FD6-900C-4C5E-A9C9-1F8D01AA6874}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4330DA9B-DBFA-4512-8AC8-B56D06C6B546}" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:E7" xr:uid="{F2747FD6-900C-4C5E-A9C9-1F8D01AA6874}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8764652D-E4F6-423B-942A-B683684BCE4E}" name="key" dataDxfId="19">
       <calculatedColumnFormula>IF(COUNTA($B2:$E2)&gt;0,CONCATENATE("cat",ROW($A2)-1),"Fill in the labels!")</calculatedColumnFormula>
@@ -2748,7 +2731,7 @@
   </sheetPr>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
@@ -2760,11 +2743,11 @@
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="22" customWidth="1"/>
     <col min="19" max="19" width="17.5703125" customWidth="1"/>
     <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.42578125" customWidth="1"/>
@@ -2772,1414 +2755,1414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4">
+        <v>914049118</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="4">
+        <v>28017</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>915220070</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4">
+        <v>28004</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4">
+        <v>915930540</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="4">
+        <v>28015</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4">
+        <v>914379815</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="4">
+        <v>28030</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4">
+        <v>644882198</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="4">
+        <v>28038</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4">
+        <v>913555550</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="4">
+        <v>28028</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4">
+        <v>635736573</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="4">
+        <v>28029</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4">
+        <v>914672726</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="4">
+        <v>28045</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="M9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>917772822</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="4">
+        <v>28018</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="6">
-        <v>914049118</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="L10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="4">
+        <v>28014</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="L11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="6">
-        <v>28017</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>913721506</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="4">
+        <v>28029</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="6" t="b">
+      <c r="J12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="4">
+        <v>28020</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="4">
+        <v>914299756</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="4">
+        <v>28014</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4">
+        <v>913806604</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" s="4">
+        <v>28038</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4">
+        <v>918286978</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="4">
+        <v>28005</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="4">
+        <v>915211174</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="4">
+        <v>28012</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="4">
+        <v>28029</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4">
+        <v>917779661</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="4">
+        <v>28038</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" s="7" t="b">
+      <c r="M19" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="7" t="b">
+      <c r="Q19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6">
-        <v>915220070</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="6">
-        <v>28004</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="R19" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="4">
+        <v>28012</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I20" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="6" t="b">
+      <c r="J20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L20" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="M20" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4">
+        <v>915592906</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="4">
+        <v>28012</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="4">
+        <v>912244837</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="4">
+        <v>28039</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="V3" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="6">
-        <v>915930540</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="6">
-        <v>28015</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="P22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11">
+        <v>911684483</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="11">
+        <v>28029</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="6" t="b">
+      <c r="K23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6">
-        <v>914379815</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="6">
-        <v>28030</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="L23" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="P5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="6">
-        <v>644882198</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="6">
-        <v>28038</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="V6" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="6">
-        <v>913555550</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="6">
-        <v>28028</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="V7" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="6">
-        <v>635736573</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="6">
-        <v>28029</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="6">
-        <v>914672726</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="6">
-        <v>28045</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6">
-        <v>917772822</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="6">
-        <v>28018</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="6">
-        <v>28014</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="6">
-        <v>913721506</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="6">
-        <v>28029</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="V12" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="6">
-        <v>28020</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="V13" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="6">
-        <v>914299756</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="6">
-        <v>28014</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="V14" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6">
-        <v>913806604</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="6">
-        <v>28038</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="U15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="V15" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="6">
-        <v>918286978</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" s="6">
-        <v>28005</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="V16" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="6">
-        <v>915211174</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="6">
-        <v>28012</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T17" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V17" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="6">
-        <v>28029</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="6">
-        <v>917779661</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="6">
-        <v>28038</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="T19" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="V19" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="6">
-        <v>28012</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="6">
-        <v>915592906</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G21" s="6">
-        <v>28012</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="6">
-        <v>912244837</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="6">
-        <v>28039</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="V22" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="15">
-        <v>911684483</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="15">
-        <v>28029</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15" t="s">
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="U23" s="15" t="s">
+      <c r="U23" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="V23" s="17" t="s">
+      <c r="V23" s="12" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4194,10 +4177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4292A902-63B0-4C12-AB71-49E517B57155}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4210,199 +4193,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A11" si="0">IF(COUNTA($B2:$E2)&gt;0,CONCATENATE("cat",ROW($A2)-1),"Fill in the labels!")</f>
+      <c r="A2" s="2" t="str">
+        <f t="shared" ref="A2:A7" si="0">IF(COUNTA($B2:$E2)&gt;0,CONCATENATE("cat",ROW($A2)-1),"Fill in the labels!")</f>
         <v>cat1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cat2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cat3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cat4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cat5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>cat6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>cat7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>cat8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>cat9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>cat10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4434,552 +4345,552 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="2" t="str">
         <f>IF(COUNTA($B2:$F2)&gt;0,CONCATENATE(SUBSTITUTE($B2,"cat","svc"),ROW($A2)-1),"Fill in the labels!")</f>
         <v>svc11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="2" t="str">
         <f t="shared" ref="A3:A26" si="0">IF(COUNTA($B3:$F3)&gt;0,CONCATENATE(SUBSTITUTE($B3,"cat","svc"),ROW($A3)-1),"Fill in the labels!")</f>
         <v>svc12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc16</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc210</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc211</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc212</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc213</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc214</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc215</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc316</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc317</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="str">
+      <c r="A19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc318</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="str">
+      <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc319</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="str">
+      <c r="A21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc320</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="str">
+      <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc321</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="str">
+      <c r="A23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc422</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="str">
+      <c r="A24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc423</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="str">
+      <c r="A25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc424</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="str">
+      <c r="A26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>svc425</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5019,70 +4930,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>218</v>
       </c>
     </row>

--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCC5662-66FF-42E6-B6D4-E5ACCE2597D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28908111-77C2-491C-A8A1-AAFDC39EFAA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Categories" sheetId="2" r:id="rId2"/>
     <sheet name="Services" sheetId="3" r:id="rId3"/>
     <sheet name="WaysOfContact" sheetId="4" r:id="rId4"/>
+    <sheet name="TargettedOrigins" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Categories!$A$1:$E$7</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="309">
   <si>
     <t>aem@alternativaenmarcha.org</t>
   </si>
@@ -361,15 +362,9 @@
     <t>district</t>
   </si>
   <si>
-    <t>timeTable</t>
-  </si>
-  <si>
     <t>priorAppointment</t>
   </si>
   <si>
-    <t>additionalInfo</t>
-  </si>
-  <si>
     <t>fullAddress</t>
   </si>
   <si>
@@ -923,6 +918,51 @@
   </si>
   <si>
     <t>PE;EQ</t>
+  </si>
+  <si>
+    <t>timeTable.ES</t>
+  </si>
+  <si>
+    <t>timeTable.EN</t>
+  </si>
+  <si>
+    <t>timeTable.FR</t>
+  </si>
+  <si>
+    <t>timeTable.AR</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>additionalInfo.ES</t>
+  </si>
+  <si>
+    <t>additionalInfo.EN</t>
+  </si>
+  <si>
+    <t>additionalInfo.FR</t>
+  </si>
+  <si>
+    <t>additionalInfo.AR</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Pérou</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
   </si>
 </sst>
 </file>
@@ -968,15 +1008,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1069,11 +1115,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,11 +1144,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="55">
     <dxf>
       <font>
         <b val="0"/>
@@ -1779,6 +1839,108 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1920,6 +2082,108 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2336,8 +2600,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{496FABF9-B904-41A0-9A3A-69F72B1F559C}">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2352,28 +2616,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA63940B-6736-4FFE-A90E-7DD2482B386E}" name="Table356" displayName="Table356" ref="A1:V23" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
-  <autoFilter ref="A1:V23" xr:uid="{A1ABD4CF-8797-418F-84EC-F4D4132E0C98}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{3CB7DF17-C103-48B7-B2BB-C03CA4ACA952}" name="ID" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{CB14816A-3E7B-4E30-B665-DD7CC64FC8FD}" name="orgName" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{9EE72959-C45C-47E7-921A-B7773AE82B21}" name="orgPhone" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{B008E3AC-8AAE-4D58-83F7-27986BD47CA6}" name="orgEmail" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{1CA78420-0C1C-4253-AE52-9F41B8939CA9}" name="orgWeb" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{68707F56-DA94-4407-B912-2963135E1136}" name="address" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{1AA6B013-D85D-417E-9A62-EF126E1AE66C}" name="postalCode" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{7D5976D5-FD34-4EBF-BA5B-F1BD6A5FCA4A}" name="district" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{4936B07E-6796-4057-A7AF-F9A5D9C459DC}" name="locality" dataDxfId="35"/>
-    <tableColumn id="10" xr3:uid="{E2316772-3F2F-415B-ACD3-89401FE74A44}" name="timeTable" dataDxfId="34"/>
-    <tableColumn id="11" xr3:uid="{756F15D8-2937-48DB-928D-C481CF43D8C2}" name="priorAppointment" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{0787C7F9-7719-46E1-A52B-0B7D48AD2DC0}" name="waysOfContact[]" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{2F4C62C8-2BEC-48D9-AD1F-00381CE97362}" name="categories[]" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{CD5E1452-5F2C-4B7B-8A48-81627D7F629E}" name="services[]" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{8AFE3F12-BA0B-42D4-A913-A52314BBCAF4}" name="languages[]" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{89630743-4A48-4707-AC78-3F737BCC5DFC}" name="targettedChild" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{47BB8DC5-0D94-41D6-ABA9-98DD02A8A0B1}" name="targettedWomen" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{C1678D26-A0C0-446D-8239-C35E55E07D73}" name="targettedOrigins[]" dataDxfId="26"/>
-    <tableColumn id="20" xr3:uid="{30A58EE2-5025-4DEE-B2E8-828F12E9E6A6}" name="additionalInfo" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FA63940B-6736-4FFE-A90E-7DD2482B386E}" name="Table356" displayName="Table356" ref="A1:AB23" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="A1:AB23" xr:uid="{A1ABD4CF-8797-418F-84EC-F4D4132E0C98}"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{3CB7DF17-C103-48B7-B2BB-C03CA4ACA952}" name="ID" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{CB14816A-3E7B-4E30-B665-DD7CC64FC8FD}" name="orgName" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{9EE72959-C45C-47E7-921A-B7773AE82B21}" name="orgPhone" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{B008E3AC-8AAE-4D58-83F7-27986BD47CA6}" name="orgEmail" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{1CA78420-0C1C-4253-AE52-9F41B8939CA9}" name="orgWeb" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{68707F56-DA94-4407-B912-2963135E1136}" name="address" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{1AA6B013-D85D-417E-9A62-EF126E1AE66C}" name="postalCode" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{7D5976D5-FD34-4EBF-BA5B-F1BD6A5FCA4A}" name="district" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{4936B07E-6796-4057-A7AF-F9A5D9C459DC}" name="locality" dataDxfId="41"/>
+    <tableColumn id="19" xr3:uid="{8513CE92-84E3-4FA2-BA35-0CD887298CEC}" name="timeTable.ES" dataDxfId="40"/>
+    <tableColumn id="22" xr3:uid="{B2B62B92-F903-4240-887D-C702DA204A0A}" name="timeTable.EN" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{5B214EDE-F533-4B25-8918-D5DECF46BBEB}" name="timeTable.FR" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{E2316772-3F2F-415B-ACD3-89401FE74A44}" name="timeTable.AR" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{756F15D8-2937-48DB-928D-C481CF43D8C2}" name="priorAppointment" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{0787C7F9-7719-46E1-A52B-0B7D48AD2DC0}" name="waysOfContact[]" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{2F4C62C8-2BEC-48D9-AD1F-00381CE97362}" name="categories[]" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{CD5E1452-5F2C-4B7B-8A48-81627D7F629E}" name="services[]" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{8AFE3F12-BA0B-42D4-A913-A52314BBCAF4}" name="languages[]" dataDxfId="32"/>
+    <tableColumn id="16" xr3:uid="{89630743-4A48-4707-AC78-3F737BCC5DFC}" name="targettedChild" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{47BB8DC5-0D94-41D6-ABA9-98DD02A8A0B1}" name="targettedWomen" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{C1678D26-A0C0-446D-8239-C35E55E07D73}" name="targettedOrigins[]" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{BC301DA3-1153-43AD-B2D8-5E0D3E1222E2}" name="additionalInfo.ES" dataDxfId="28"/>
+    <tableColumn id="27" xr3:uid="{C0629BDB-2103-45CC-99AD-87B828088F88}" name="additionalInfo.EN" dataDxfId="27"/>
+    <tableColumn id="23" xr3:uid="{FEE1C06C-6408-4478-9A95-BB6BF94E8F7B}" name="additionalInfo.FR" dataDxfId="26"/>
+    <tableColumn id="20" xr3:uid="{30A58EE2-5025-4DEE-B2E8-828F12E9E6A6}" name="additionalInfo.AR" dataDxfId="25"/>
     <tableColumn id="24" xr3:uid="{1D038E44-40C3-425C-A8C1-32D782986A58}" name="fullAddress" dataDxfId="24"/>
     <tableColumn id="25" xr3:uid="{C9080C18-D97E-4347-A518-16763BF326D2}" name="geocode.lat" dataDxfId="23"/>
     <tableColumn id="26" xr3:uid="{B2CBB689-92E1-4156-9126-3417F38FA8D2}" name="geocode.lng" dataDxfId="22"/>
@@ -2729,32 +2999,34 @@
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H5" sqref="H5"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="22" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" customWidth="1"/>
-    <col min="20" max="20" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.85546875" customWidth="1"/>
+    <col min="21" max="24" width="22" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>92</v>
       </c>
@@ -2780,49 +3052,67 @@
         <v>107</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2839,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="4">
         <v>28017</v>
@@ -2848,47 +3138,65 @@
         <v>45</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="4" t="b">
+      <c r="K2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="O2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P2" s="4" t="b">
+        <v>278</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" s="4" t="b">
+      <c r="T2" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2914,45 +3222,63 @@
         <v>48</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="4" t="b">
+      <c r="K3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="R3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="S3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2969,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="4">
         <v>28015</v>
@@ -2978,43 +3304,61 @@
         <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="4" t="b">
+      <c r="K4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="O4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3038,43 +3382,61 @@
         <v>57</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="4" t="b">
+      <c r="K5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="O5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P5" s="4" t="b">
+        <v>279</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3100,43 +3462,61 @@
         <v>60</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="4" t="b">
+      <c r="K6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="b">
+        <v>279</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
+      <c r="U6" s="4"/>
+      <c r="V6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3153,48 +3533,66 @@
         <v>11</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G7" s="4">
         <v>28028</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="4" t="b">
+      <c r="K7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="P7" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="R7" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="S7" s="4"/>
-      <c r="T7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3209,7 +3607,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="4">
         <v>28029</v>
@@ -3218,43 +3616,61 @@
         <v>65</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="4" t="b">
+      <c r="K8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="4" t="b">
+        <v>280</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB8" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3271,7 +3687,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="4">
         <v>28045</v>
@@ -3280,43 +3696,61 @@
         <v>68</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="4" t="b">
+      <c r="K9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="R9" s="4" t="s">
-        <v>287</v>
+        <v>125</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB9" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3333,7 +3767,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G10" s="4">
         <v>28018</v>
@@ -3342,41 +3776,59 @@
         <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="4" t="b">
+      <c r="K10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="O10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB10" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3400,43 +3852,61 @@
         <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="4" t="b">
+      <c r="K11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="O11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="b">
+        <v>279</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3462,45 +3932,63 @@
         <v>65</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="4" t="b">
+      <c r="K12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="O12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P12" s="4" t="b">
+        <v>275</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB12" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3524,41 +4012,59 @@
         <v>72</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="4" t="b">
+      <c r="K13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N13" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="O13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB13" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3575,7 +4081,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G14" s="4">
         <v>28014</v>
@@ -3584,43 +4090,61 @@
         <v>48</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="4" t="b">
+      <c r="K14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="O14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="b">
+        <v>279</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB14" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3637,7 +4161,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G15" s="4">
         <v>28038</v>
@@ -3646,43 +4170,61 @@
         <v>60</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K15" s="4" t="b">
+      <c r="K15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>270</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="R15" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="T15" s="4"/>
       <c r="U15" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB15" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3699,7 +4241,7 @@
         <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" s="4">
         <v>28005</v>
@@ -3708,39 +4250,57 @@
         <v>68</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="4" t="b">
+      <c r="K16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
+      <c r="R16" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="S16" s="4"/>
-      <c r="T16" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB16" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3757,7 +4317,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G17" s="4">
         <v>28012</v>
@@ -3766,43 +4326,61 @@
         <v>48</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="4" t="b">
+      <c r="K17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N17" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="O17" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="T17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB17" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3826,41 +4404,59 @@
         <v>72</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K18" s="4" t="b">
+      <c r="K18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="O18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
+        <v>276</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB18" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3884,49 +4480,67 @@
         <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="4" t="b">
+      <c r="K19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="O19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S19" s="4" t="s">
+      <c r="V19" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W19" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB19" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3941,7 +4555,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G20" s="4">
         <v>28012</v>
@@ -3950,41 +4564,59 @@
         <v>48</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="4" t="b">
+      <c r="K20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="O20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB20" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -4001,7 +4633,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="4">
         <v>28012</v>
@@ -4010,41 +4642,59 @@
         <v>48</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="4" t="b">
+      <c r="K21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>274</v>
-      </c>
       <c r="O21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -4070,43 +4720,61 @@
         <v>88</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K22" s="4" t="b">
+      <c r="K22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L22" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>275</v>
-      </c>
       <c r="O22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="4" t="b">
+        <v>286</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S22" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB22" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4132,38 +4800,56 @@
         <v>72</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="11" t="b">
+      <c r="K23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="O23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
+        <v>275</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="S23" s="11"/>
-      <c r="T23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="U23" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>200</v>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4179,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4292A902-63B0-4C12-AB71-49E517B57155}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4194,19 +4880,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4215,16 +4901,16 @@
         <v>cat1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4233,16 +4919,16 @@
         <v>cat2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4251,16 +4937,16 @@
         <v>cat3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4269,16 +4955,16 @@
         <v>cat4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -4287,16 +4973,16 @@
         <v>cat5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4305,16 +4991,16 @@
         <v>cat6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4328,11 +5014,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8087170B-0D62-4A26-AF96-7842979EAF6C}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4346,22 +5030,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4370,19 +5054,19 @@
         <v>svc11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -4391,19 +5075,19 @@
         <v>svc12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4412,19 +5096,19 @@
         <v>svc13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4433,19 +5117,19 @@
         <v>svc14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4454,19 +5138,19 @@
         <v>svc15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4475,19 +5159,19 @@
         <v>svc16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4496,19 +5180,19 @@
         <v>svc27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4517,19 +5201,19 @@
         <v>svc28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4538,19 +5222,19 @@
         <v>svc29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,19 +5243,19 @@
         <v>svc210</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4580,19 +5264,19 @@
         <v>svc211</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4601,19 +5285,19 @@
         <v>svc212</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4622,19 +5306,19 @@
         <v>svc213</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4643,19 +5327,19 @@
         <v>svc214</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4664,19 +5348,19 @@
         <v>svc215</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4685,19 +5369,19 @@
         <v>svc316</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4706,19 +5390,19 @@
         <v>svc317</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4727,19 +5411,19 @@
         <v>svc318</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4748,19 +5432,19 @@
         <v>svc319</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4769,19 +5453,19 @@
         <v>svc320</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4790,19 +5474,19 @@
         <v>svc321</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4811,19 +5495,19 @@
         <v>svc422</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4832,19 +5516,19 @@
         <v>svc423</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4853,19 +5537,19 @@
         <v>svc424</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4874,23 +5558,20 @@
         <v>svc425</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4918,7 +5599,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4931,70 +5612,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5004,4 +5685,70 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4532F6C8-4F1F-4B5E-A128-E84586164F62}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD030C0E-A5D0-4FAD-9ABC-516933C935DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE156C8C-BCC0-4DA3-8E5D-39D84D39BD66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1081">
   <si>
     <t>ID</t>
   </si>
@@ -594,12 +594,6 @@
     <t>cat6</t>
   </si>
   <si>
-    <t>Información legal y asistencia jurídica</t>
-  </si>
-  <si>
-    <t>Legal information and assistance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assistance juridique </t>
   </si>
   <si>
@@ -612,15 +606,9 @@
     <t>cat7</t>
   </si>
   <si>
-    <t>Información y orientación laboral</t>
-  </si>
-  <si>
     <t>www.lamercedmigraciones.org</t>
   </si>
   <si>
-    <t>Job training and Labour guidance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orientation laborale </t>
   </si>
   <si>
@@ -628,9 +616,6 @@
   </si>
   <si>
     <t>Traducción y Mediación cultural</t>
-  </si>
-  <si>
-    <t>Translation and Cultural mediation</t>
   </si>
   <si>
     <t xml:space="preserve">Traduction / Médiation culturelle </t>
@@ -3378,6 +3363,54 @@
   </si>
   <si>
     <t>-3.7034988</t>
+  </si>
+  <si>
+    <t>servicios_basicos.png</t>
+  </si>
+  <si>
+    <t>salud.png</t>
+  </si>
+  <si>
+    <t>educacion.png</t>
+  </si>
+  <si>
+    <t>ocio.png</t>
+  </si>
+  <si>
+    <t>recursos_violencia.png</t>
+  </si>
+  <si>
+    <t>legal.png</t>
+  </si>
+  <si>
+    <t>laboral.png</t>
+  </si>
+  <si>
+    <t>traduccion.png</t>
+  </si>
+  <si>
+    <t>retorno.png</t>
+  </si>
+  <si>
+    <t>origen.png</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Info. legal y asistencia jurídica</t>
+  </si>
+  <si>
+    <t>Info. y orientación laboral</t>
+  </si>
+  <si>
+    <t>Legal info. and assistance</t>
+  </si>
+  <si>
+    <t>Labour guidance</t>
+  </si>
+  <si>
+    <t>Translation / Mediation</t>
   </si>
 </sst>
 </file>
@@ -4015,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -4066,13 +4099,13 @@
         <v>68</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>70</v>
@@ -4144,13 +4177,13 @@
       <c r="W2" s="19"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="19" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,7 +4200,7 @@
         <v>106</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>107</v>
@@ -4219,13 +4252,13 @@
         <v>119</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="Z3" s="22" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="AA3" s="23" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4292,13 +4325,13 @@
         <v>133</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="Z4" s="22" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,13 +4400,13 @@
         <v>140</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4436,13 +4469,13 @@
       <c r="W6" s="19"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="19" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="AA6" s="23" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4502,22 +4535,22 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="W7" s="19" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="AA7" s="23" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4525,52 +4558,52 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" s="18">
         <v>913555550</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>189</v>
-      </c>
       <c r="F8" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G8" s="18">
         <v>28028</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M8" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R8" s="21" t="s">
         <v>151</v>
@@ -4581,22 +4614,22 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
       <c r="V8" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="W8" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="X8" s="16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4604,35 +4637,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="18">
         <v>635736573</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G9" s="18">
         <v>28029</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M9" s="19" t="s">
         <v>128</v>
@@ -4641,10 +4674,10 @@
         <v>76</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q9" s="19" t="s">
         <v>11</v>
@@ -4657,13 +4690,13 @@
       <c r="W9" s="19"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="19" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="AA9" s="23" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4671,49 +4704,49 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C10" s="18">
         <v>914672726</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G10" s="18">
         <v>28045</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>11</v>
@@ -4723,22 +4756,22 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
       <c r="V10" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="X10" s="16" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="Z10" s="22" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4746,19 +4779,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C11" s="18">
         <v>917772822</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G11" s="18">
         <v>28018</v>
@@ -4770,13 +4803,13 @@
         <v>97</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>112</v>
@@ -4785,10 +4818,10 @@
         <v>113</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="19" t="s">
         <v>11</v>
@@ -4801,13 +4834,13 @@
       <c r="W11" s="19"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="19" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="Z11" s="22" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4815,17 +4848,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G12" s="18">
         <v>28014</v>
@@ -4843,17 +4876,17 @@
         <v>169</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N12" s="19"/>
       <c r="O12" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q12" s="19" t="s">
         <v>11</v>
@@ -4863,22 +4896,22 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="W12" s="19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="X12" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4886,37 +4919,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C13" s="18">
         <v>913721506</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G13" s="18">
         <v>28029</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I13" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>112</v>
@@ -4925,10 +4958,10 @@
         <v>113</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="19" t="s">
         <v>11</v>
@@ -4940,22 +4973,22 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="AA13" s="23" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4963,23 +4996,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G14" s="18">
         <v>28020</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>97</v>
@@ -5001,7 +5034,7 @@
         <v>175</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="19" t="s">
         <v>11</v>
@@ -5014,13 +5047,13 @@
       <c r="W14" s="19"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="19" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="Z14" s="22" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="AA14" s="23" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5028,19 +5061,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C15" s="18">
         <v>914299756</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G15" s="18">
         <v>28014</v>
@@ -5052,28 +5085,28 @@
         <v>97</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M15" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
@@ -5083,13 +5116,13 @@
       <c r="W15" s="19"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="19" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="Z15" s="22" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5097,19 +5130,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C16" s="18">
         <v>913806604</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G16" s="18">
         <v>28038</v>
@@ -5121,13 +5154,13 @@
         <v>97</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M16" s="19" t="s">
         <v>112</v>
@@ -5136,10 +5169,10 @@
         <v>113</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="19" t="s">
         <v>116</v>
@@ -5152,13 +5185,13 @@
       <c r="W16" s="19"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="AA16" s="23" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5166,37 +5199,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C17" s="18">
         <v>918286978</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G17" s="18">
         <v>28005</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M17" s="19" t="s">
         <v>112</v>
@@ -5205,10 +5238,10 @@
         <v>69</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="19" t="s">
         <v>11</v>
@@ -5222,22 +5255,22 @@
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="W17" s="19" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="X17" s="24" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="AA17" s="23" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5245,35 +5278,35 @@
         <v>17</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G18" s="18">
         <v>28029</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>128</v>
@@ -5285,7 +5318,7 @@
         <v>162</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="Q18" s="19" t="s">
         <v>116</v>
@@ -5298,13 +5331,13 @@
       <c r="W18" s="19"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="19" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="AA18" s="23" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5312,17 +5345,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C19" s="18">
         <v>917779661</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G19" s="18">
         <v>28038</v>
@@ -5334,22 +5367,22 @@
         <v>97</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M19" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P19" s="19"/>
       <c r="Q19" s="19" t="s">
@@ -5362,22 +5395,22 @@
       <c r="T19" s="19"/>
       <c r="U19" s="19"/>
       <c r="V19" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="W19" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="X19" s="24" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="Z19" s="22" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="AA19" s="23" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5385,17 +5418,17 @@
         <v>19</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C20" s="18">
         <v>917779661</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G20" s="18">
         <v>28038</v>
@@ -5407,13 +5440,13 @@
         <v>97</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M20" s="19" t="s">
         <v>112</v>
@@ -5422,10 +5455,10 @@
         <v>69</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Q20" s="19" t="s">
         <v>11</v>
@@ -5437,22 +5470,22 @@
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
       <c r="V20" s="19" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="W20" s="19" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="X20" s="24" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="Z20" s="22" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="AA20" s="23" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5460,17 +5493,17 @@
         <v>20</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G21" s="18">
         <v>28005</v>
@@ -5482,13 +5515,13 @@
         <v>97</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>112</v>
@@ -5497,13 +5530,13 @@
         <v>80</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="21" t="s">
@@ -5512,22 +5545,22 @@
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="W21" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="X21" s="24" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Y21" s="25" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="Z21" s="22" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AA21" s="23" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5535,19 +5568,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C22" s="18">
         <v>915592906</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G22" s="18">
         <v>28012</v>
@@ -5559,50 +5592,50 @@
         <v>97</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M22" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N22" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R22" s="19"/>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="21" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="W22" s="21" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="X22" s="21" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="Z22" s="22" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="AA22" s="23" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5610,49 +5643,49 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C23" s="18">
         <v>912244837</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G23" s="18">
         <v>28039</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="M23" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Q23" s="19" t="s">
         <v>11</v>
@@ -5665,13 +5698,13 @@
       <c r="W23" s="19"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="19" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="Z23" s="22" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="AA23" s="23" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5679,37 +5712,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C24" s="18">
         <v>911684483</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G24" s="18">
         <v>28029</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I24" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M24" s="19" t="s">
         <v>112</v>
@@ -5718,10 +5751,10 @@
         <v>69</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q24" s="19" t="s">
         <v>11</v>
@@ -5733,22 +5766,22 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="W24" s="19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="X24" s="24" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="Z24" s="22" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="AA24" s="23" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,37 +5789,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C25" s="18">
         <v>911684483</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G25" s="18">
         <v>28023</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I25" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M25" s="19" t="s">
         <v>112</v>
@@ -5795,10 +5828,10 @@
         <v>69</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="19" t="s">
         <v>11</v>
@@ -5810,22 +5843,22 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="W25" s="19" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="X25" s="24" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="Z25" s="22" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="AA25" s="23" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5833,37 +5866,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C26" s="18">
         <v>915531873</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G26" s="18">
         <v>28003</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I26" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M26" s="19" t="s">
         <v>128</v>
@@ -5872,13 +5905,13 @@
         <v>76</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R26" s="19"/>
       <c r="S26" s="21" t="s">
@@ -5889,22 +5922,22 @@
         <v>18</v>
       </c>
       <c r="V26" s="19" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="W26" s="19" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="X26" s="16" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Y26" s="19" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="Z26" s="22" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="AA26" s="23" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,19 +5945,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C27" s="18">
         <v>915211174</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G27" s="18">
         <v>28012</v>
@@ -5936,13 +5969,13 @@
         <v>97</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M27" s="19" t="s">
         <v>112</v>
@@ -5951,13 +5984,13 @@
         <v>88</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="Q27" s="19" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="R27" s="21" t="s">
         <v>151</v>
@@ -5970,22 +6003,22 @@
       </c>
       <c r="U27" s="19"/>
       <c r="V27" s="19" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="W27" s="19" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="X27" s="26" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="Y27" s="19" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="Z27" s="22" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="AA27" s="23" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5993,19 +6026,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C28" s="18">
         <v>918780905</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G28" s="18">
         <v>28013</v>
@@ -6017,25 +6050,25 @@
         <v>97</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="Q28" s="19" t="s">
         <v>116</v>
@@ -6047,22 +6080,22 @@
       </c>
       <c r="U28" s="19"/>
       <c r="V28" s="19" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="W28" s="19" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="X28" s="16" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Y28" s="19" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="Z28" s="22" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="AA28" s="23" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6070,49 +6103,49 @@
         <v>29</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C29" s="18">
         <v>917975354</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G29" s="18">
         <v>28021</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M29" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Q29" s="19" t="s">
         <v>11</v>
@@ -6124,22 +6157,22 @@
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="W29" s="19" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="X29" s="16" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="Y29" s="19" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="Z29" s="22" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="AA29" s="23" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6147,17 +6180,17 @@
         <v>30</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C30" s="18">
         <v>639902518</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="G30" s="18">
         <v>28013</v>
@@ -6169,28 +6202,28 @@
         <v>97</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L30" s="27" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R30" s="21" t="s">
         <v>151</v>
@@ -6201,22 +6234,22 @@
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="W30" s="19" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="X30" s="24" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Y30" s="19" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="Z30" s="22" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="AA30" s="23" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6224,46 +6257,46 @@
         <v>31</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C31" s="18">
         <v>914424991</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G31" s="18">
         <v>28015</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N31" s="19" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="P31" s="19" t="s">
         <v>150</v>
@@ -6278,22 +6311,22 @@
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="W31" s="19" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="X31" s="24" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Y31" s="19" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="Z31" s="22" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="AA31" s="23" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6301,19 +6334,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C32" s="18">
         <v>676553906</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G32" s="18">
         <v>28014</v>
@@ -6331,7 +6364,7 @@
         <v>169</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>128</v>
@@ -6340,13 +6373,13 @@
         <v>76</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Q32" s="19" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="R32" s="21" t="s">
         <v>151</v>
@@ -6355,22 +6388,22 @@
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="W32" s="19" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="X32" s="16" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="Z32" s="22" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="AA32" s="23" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6378,49 +6411,49 @@
         <v>33</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C33" s="18">
         <v>915704428</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="G33" s="18">
         <v>28039</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M33" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="Q33" s="19" t="s">
         <v>116</v>
@@ -6432,22 +6465,22 @@
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="X33" s="24" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Y33" s="19" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="Z33" s="22" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="AA33" s="23" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6455,47 +6488,47 @@
         <v>34</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C34" s="18">
         <v>915235845</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G34" s="18">
         <v>28028</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I34" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N34" s="19"/>
       <c r="O34" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="19" t="s">
         <v>11</v>
@@ -6509,22 +6542,22 @@
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="19" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="W34" s="19" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="X34" s="24" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="Y34" s="19" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="Z34" s="22" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="AA34" s="23" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6532,37 +6565,37 @@
         <v>35</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C35" s="18">
         <v>626274495</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G35" s="18">
         <v>28043</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M35" s="19" t="s">
         <v>112</v>
@@ -6584,22 +6617,22 @@
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="V35" s="19" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="W35" s="19" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="X35" s="26" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="Y35" s="19" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="Z35" s="22" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="AA35" s="23" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6607,19 +6640,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C36" s="18">
         <v>917868384</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G36" s="18">
         <v>28053</v>
@@ -6631,13 +6664,13 @@
         <v>97</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>128</v>
@@ -6646,7 +6679,7 @@
         <v>76</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="P36" s="19"/>
       <c r="Q36" s="19" t="s">
@@ -6659,22 +6692,22 @@
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="W36" s="19" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="X36" s="26" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="Z36" s="22" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="AA36" s="23" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6682,19 +6715,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C37" s="18">
         <v>915076281</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G37" s="18">
         <v>28053</v>
@@ -6706,25 +6739,25 @@
         <v>97</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N37" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O37" s="19" t="s">
         <v>162</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Q37" s="19" t="s">
         <v>11</v>
@@ -6736,22 +6769,22 @@
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
       <c r="V37" s="19" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="W37" s="19" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="X37" s="16" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="Y37" s="19" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="Z37" s="22" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="AA37" s="23" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6759,19 +6792,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C38" s="18">
         <v>677220379</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G38" s="18">
         <v>28053</v>
@@ -6783,25 +6816,25 @@
         <v>97</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="M38" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="Q38" s="19" t="s">
         <v>116</v>
@@ -6811,22 +6844,22 @@
       <c r="T38" s="19"/>
       <c r="U38" s="19"/>
       <c r="V38" s="19" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="W38" s="19" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="X38" s="16" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="Z38" s="22" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="AA38" s="23" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6834,17 +6867,17 @@
         <v>39</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C39" s="18">
         <v>671054528</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G39" s="18">
         <v>28012</v>
@@ -6862,20 +6895,20 @@
         <v>169</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M39" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N39" s="19"/>
       <c r="O39" s="19" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="Q39" s="19" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="R39" s="19"/>
       <c r="S39" s="21" t="s">
@@ -6884,22 +6917,22 @@
       <c r="T39" s="19"/>
       <c r="U39" s="19"/>
       <c r="V39" s="19" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="W39" s="19" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="X39" s="16" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="Z39" s="22" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="AA39" s="23" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6907,19 +6940,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C40" s="18">
         <v>915398704</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G40" s="18">
         <v>28012</v>
@@ -6931,13 +6964,13 @@
         <v>97</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M40" s="19" t="s">
         <v>112</v>
@@ -6946,10 +6979,10 @@
         <v>113</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="Q40" s="19" t="s">
         <v>11</v>
@@ -6961,22 +6994,22 @@
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
       <c r="V40" s="19" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="W40" s="19" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="X40" s="16" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="Z40" s="22" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="AA40" s="23" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6984,37 +7017,37 @@
         <v>41</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C41" s="18">
         <v>679367339</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G41" s="18">
         <v>28009</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M41" s="19" t="s">
         <v>128</v>
@@ -7024,7 +7057,7 @@
         <v>170</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q41" s="19" t="s">
         <v>11</v>
@@ -7034,22 +7067,22 @@
       <c r="T41" s="19"/>
       <c r="U41" s="19"/>
       <c r="V41" s="19" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="W41" s="19" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="X41" s="16" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="Y41" s="19" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="Z41" s="22" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="AA41" s="23" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7057,37 +7090,37 @@
         <v>42</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C42" s="18">
         <v>914719719</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G42" s="18">
         <v>28019</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I42" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>112</v>
@@ -7096,10 +7129,10 @@
         <v>69</v>
       </c>
       <c r="O42" s="19" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="Q42" s="19" t="s">
         <v>11</v>
@@ -7111,22 +7144,22 @@
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
       <c r="V42" s="19" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="W42" s="19" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="X42" s="16" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="Y42" s="19" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="Z42" s="22" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="AA42" s="23" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7134,52 +7167,52 @@
         <v>43</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C43" s="18">
         <v>683280312</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G43" s="18">
         <v>28007</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="Q43" s="28" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R43" s="19"/>
       <c r="S43" s="19"/>
@@ -7189,13 +7222,13 @@
       <c r="W43" s="19"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="19" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="Z43" s="22" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="AA43" s="23" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7203,17 +7236,17 @@
         <v>44</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C44" s="18">
         <v>913802721</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E44" s="19"/>
       <c r="F44" s="19" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G44" s="18">
         <v>28038</v>
@@ -7225,25 +7258,25 @@
         <v>97</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M44" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="Q44" s="19" t="s">
         <v>116</v>
@@ -7253,22 +7286,22 @@
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
       <c r="V44" s="19" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="W44" s="19" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="X44" s="16" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Y44" s="19" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="Z44" s="22" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="AA44" s="29" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7276,37 +7309,37 @@
         <v>45</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C45" s="18">
         <v>915417065</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G45" s="18">
         <v>28037</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>128</v>
@@ -7328,22 +7361,22 @@
       <c r="T45" s="19"/>
       <c r="U45" s="19"/>
       <c r="V45" s="19" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="X45" s="16" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="Y45" s="19" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="Z45" s="22" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AA45" s="23" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7351,37 +7384,37 @@
         <v>46</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C46" s="18">
         <v>915392036</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G46" s="18">
         <v>28045</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="M46" s="19" t="s">
         <v>128</v>
@@ -7406,13 +7439,13 @@
       <c r="W46" s="19"/>
       <c r="X46" s="16"/>
       <c r="Y46" s="19" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="Z46" s="22" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="AA46" s="23" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7420,43 +7453,43 @@
         <v>47</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C47" s="18">
         <v>917087074</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G47" s="18">
         <v>28029</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="M47" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O47" s="19" t="s">
         <v>129</v>
@@ -7472,22 +7505,22 @@
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="W47" s="19" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="X47" s="24" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="Y47" s="19" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="Z47" s="22" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="AA47" s="23" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7495,49 +7528,49 @@
         <v>48</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C48" s="18">
         <v>917087074</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G48" s="18">
         <v>28029</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="I48" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="M48" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="Q48" s="28" t="s">
         <v>11</v>
@@ -7547,22 +7580,22 @@
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
       <c r="V48" s="19" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="W48" s="19" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="X48" s="16" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Y48" s="19" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="Z48" s="22" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="AA48" s="23" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7570,19 +7603,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C49" s="18">
         <v>910115565</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G49" s="18">
         <v>28012</v>
@@ -7600,19 +7633,19 @@
         <v>169</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M49" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O49" s="19" t="s">
         <v>129</v>
       </c>
       <c r="P49" s="19" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="Q49" s="19" t="s">
         <v>11</v>
@@ -7624,22 +7657,22 @@
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
       <c r="V49" s="19" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="W49" s="19" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="X49" s="24" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="Y49" s="19" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="Z49" s="22" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="AA49" s="23" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7647,37 +7680,37 @@
         <v>50</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C50" s="18">
         <v>914454169</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G50" s="18">
         <v>28010</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="M50" s="19" t="s">
         <v>112</v>
@@ -7686,10 +7719,10 @@
         <v>76</v>
       </c>
       <c r="O50" s="19" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="Q50" s="19" t="s">
         <v>11</v>
@@ -7699,22 +7732,22 @@
       <c r="T50" s="19"/>
       <c r="U50" s="19"/>
       <c r="V50" s="19" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="W50" s="19" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="X50" s="24" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Y50" s="19" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="Z50" s="22" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="AA50" s="23" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7722,74 +7755,74 @@
         <v>51</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C51" s="18">
         <v>914682859</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G51" s="18">
         <v>28005</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M51" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O51" s="19" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="Q51" s="19" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="R51" s="19"/>
       <c r="S51" s="19"/>
       <c r="T51" s="19"/>
       <c r="U51" s="19"/>
       <c r="V51" s="19" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="W51" s="19" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="X51" s="24" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="Y51" s="19" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="Z51" s="22" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="AA51" s="23" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7797,19 +7830,19 @@
         <v>52</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C52" s="18">
         <v>655485241</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G52" s="18">
         <v>28013</v>
@@ -7821,13 +7854,13 @@
         <v>97</v>
       </c>
       <c r="J52" s="19" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>112</v>
@@ -7836,13 +7869,13 @@
         <v>113</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="Q52" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R52" s="19"/>
       <c r="S52" s="16" t="s">
@@ -7853,22 +7886,22 @@
         <v>14</v>
       </c>
       <c r="V52" s="19" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="X52" s="26" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="Y52" s="19" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="Z52" s="22" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="AA52" s="23" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7876,52 +7909,52 @@
         <v>53</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C53" s="18">
         <v>622042564</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G53" s="18">
         <v>28034</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I53" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N53" s="19" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="Q53" s="28" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="R53" s="19"/>
       <c r="S53" s="21" t="s">
@@ -7930,22 +7963,22 @@
       <c r="T53" s="19"/>
       <c r="U53" s="19"/>
       <c r="V53" s="19" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="X53" s="24" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="Z53" s="22" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="AA53" s="23" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7953,19 +7986,19 @@
         <v>54</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C54" s="18">
         <v>658977641</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G54" s="18">
         <v>28005</v>
@@ -7977,28 +8010,28 @@
         <v>97</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="M54" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N54" s="19" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="Q54" s="19" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="R54" s="19"/>
       <c r="S54" s="21" t="s">
@@ -8010,13 +8043,13 @@
       <c r="W54" s="19"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="19" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="Z54" s="22" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="AA54" s="29" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8024,19 +8057,19 @@
         <v>55</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C55" s="18">
         <v>915390238</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G55" s="18">
         <v>28005</v>
@@ -8048,25 +8081,25 @@
         <v>97</v>
       </c>
       <c r="J55" s="19" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="P55" s="19" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Q55" s="19" t="s">
         <v>11</v>
@@ -8078,22 +8111,22 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="W55" s="19" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="X55" s="16" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="Y55" s="19" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="Z55" s="22" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="AA55" s="29" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8101,15 +8134,15 @@
         <v>57</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C56" s="19"/>
       <c r="D56" s="28" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="19" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G56" s="18">
         <v>28012</v>
@@ -8121,25 +8154,25 @@
         <v>97</v>
       </c>
       <c r="J56" s="19" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="M56" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="P56" s="19" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="Q56" s="19" t="s">
         <v>11</v>
@@ -8155,22 +8188,22 @@
       </c>
       <c r="U56" s="19"/>
       <c r="V56" s="19" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="W56" s="19" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="X56" s="16" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="Y56" s="19" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="Z56" s="22" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="AA56" s="23" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8178,49 +8211,49 @@
         <v>59</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C57" s="18">
         <v>915930540</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G57" s="18">
         <v>28015</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I57" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K57" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M57" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="P57" s="19" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="Q57" s="19" t="s">
         <v>11</v>
@@ -8234,22 +8267,22 @@
       </c>
       <c r="U57" s="19"/>
       <c r="V57" s="19" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="W57" s="19" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="X57" s="16" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="Y57" s="19" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="Z57" s="22" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AA57" s="23" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8257,49 +8290,49 @@
         <v>60</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C58" s="18">
         <v>634126582</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G58" s="18">
         <v>28015</v>
       </c>
       <c r="H58" s="19" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I58" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M58" s="19" t="s">
         <v>112</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="Q58" s="19" t="s">
         <v>11</v>
@@ -8313,22 +8346,22 @@
       </c>
       <c r="U58" s="19"/>
       <c r="V58" s="19" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="W58" s="19" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="X58" s="16" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="Y58" s="19" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="Z58" s="22" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="AA58" s="23" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8336,17 +8369,17 @@
         <v>61</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C59" s="18">
         <v>675443787</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E59" s="19"/>
       <c r="F59" s="19" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="G59" s="18">
         <v>28012</v>
@@ -8358,28 +8391,28 @@
         <v>97</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="K59" s="19" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N59" s="30" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="Q59" s="28" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="R59" s="19"/>
       <c r="S59" s="19" t="s">
@@ -8388,22 +8421,22 @@
       <c r="T59" s="19"/>
       <c r="U59" s="19"/>
       <c r="V59" s="19" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="W59" s="19" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="X59" s="16" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="Y59" s="19" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="Z59" s="22" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="AA59" s="23" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8411,19 +8444,19 @@
         <v>62</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C60" s="18">
         <v>634143839</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G60" s="18">
         <v>28012</v>
@@ -8435,19 +8468,19 @@
         <v>97</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="L60" s="19" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="M60" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N60" s="30" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="O60" s="19" t="s">
         <v>181</v>
@@ -8463,22 +8496,22 @@
       <c r="T60" s="19"/>
       <c r="U60" s="19"/>
       <c r="V60" s="19" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="W60" s="19" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="X60" s="16" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="Y60" s="19" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="Z60" s="22" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="AA60" s="23" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8486,19 +8519,19 @@
         <v>63</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C61" s="18">
         <v>6277005011</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G61" s="18">
         <v>28012</v>
@@ -8510,13 +8543,13 @@
         <v>97</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>112</v>
@@ -8525,10 +8558,10 @@
         <v>113</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="Q61" s="19" t="s">
         <v>11</v>
@@ -8540,22 +8573,22 @@
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
       <c r="V61" s="19" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="W61" s="19" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="X61" s="16" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="Y61" s="19" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="Z61" s="22" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="AA61" s="23" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8563,37 +8596,37 @@
         <v>64</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C62" s="19">
         <v>915222921</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G62" s="19">
         <v>28037</v>
       </c>
       <c r="H62" s="19" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I62" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J62" s="19" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>112</v>
@@ -8602,10 +8635,10 @@
         <v>80</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="P62" s="19" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="Q62" s="19" t="s">
         <v>11</v>
@@ -8617,22 +8650,22 @@
       <c r="T62" s="19"/>
       <c r="U62" s="19"/>
       <c r="V62" s="19" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="W62" s="19" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="X62" s="16" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="Y62" s="19" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="Z62" s="22" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AA62" s="23" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8640,25 +8673,25 @@
         <v>66</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C63" s="18">
         <v>622397863</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G63" s="18">
         <v>28005</v>
       </c>
       <c r="H63" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="I63" s="19" t="s">
         <v>97</v>
@@ -8670,7 +8703,7 @@
         <v>169</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M63" s="19" t="s">
         <v>128</v>
@@ -8680,7 +8713,7 @@
         <v>162</v>
       </c>
       <c r="P63" s="19" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q63" s="19" t="s">
         <v>11</v>
@@ -8690,22 +8723,22 @@
       <c r="T63" s="19"/>
       <c r="U63" s="19"/>
       <c r="V63" s="19" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="W63" s="19" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="X63" s="16" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="Y63" s="19" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="Z63" s="22" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="AA63" s="31" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8713,47 +8746,47 @@
         <v>67</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C64" s="19">
         <v>912191157</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G64" s="19">
         <v>28014</v>
       </c>
       <c r="H64" s="19" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I64" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J64" s="19" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N64" s="19"/>
       <c r="O64" s="19" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="P64" s="19" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="Q64" s="19" t="s">
         <v>116</v>
@@ -8763,22 +8796,22 @@
       <c r="T64" s="19"/>
       <c r="U64" s="19"/>
       <c r="V64" s="19" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="W64" s="33" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="X64" s="16" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="Y64" s="19" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="Z64" s="22" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AA64" s="31" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
     <row r="65" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8786,72 +8819,72 @@
         <v>68</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C65" s="19"/>
       <c r="D65" s="19" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G65" s="19">
         <v>28014</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="I65" s="19" t="s">
         <v>97</v>
       </c>
       <c r="J65" s="19" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>128</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="P65" s="19" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="Q65" s="19" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="R65" s="19"/>
       <c r="S65" s="19"/>
       <c r="T65" s="19"/>
       <c r="U65" s="19"/>
       <c r="V65" s="19" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="W65" s="34" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="X65" s="16" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="Y65" s="19" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="Z65" s="22" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AA65" s="31" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -8868,10 +8901,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8881,10 +8914,11 @@
     <col min="3" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
@@ -8900,8 +8934,11 @@
       <c r="E1" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="13" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>129</v>
       </c>
@@ -8917,8 +8954,11 @@
       <c r="E2" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="13" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>158</v>
       </c>
@@ -8934,8 +8974,11 @@
       <c r="E3" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="13" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>162</v>
       </c>
@@ -8951,8 +8994,11 @@
       <c r="E4" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="13" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>170</v>
       </c>
@@ -8968,8 +9014,11 @@
       <c r="E5" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="13" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>177</v>
       </c>
@@ -8985,90 +9034,108 @@
       <c r="E6" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="13" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="13" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="13" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>194</v>
+        <v>1080</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="13" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F10" s="13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>157</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1074</v>
       </c>
     </row>
   </sheetData>
@@ -9103,7 +9170,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>11</v>
@@ -9135,19 +9202,19 @@
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="5"/>
@@ -9176,13 +9243,13 @@
         <v>129</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="5"/>
@@ -9205,19 +9272,19 @@
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="5"/>
@@ -9240,19 +9307,19 @@
     </row>
     <row r="5" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -9281,13 +9348,13 @@
         <v>129</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="5"/>
@@ -9310,19 +9377,19 @@
     </row>
     <row r="7" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="5"/>
@@ -9345,19 +9412,19 @@
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="5"/>
@@ -9380,19 +9447,19 @@
     </row>
     <row r="9" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="5"/>
@@ -9415,19 +9482,19 @@
     </row>
     <row r="10" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="5"/>
@@ -9450,19 +9517,19 @@
     </row>
     <row r="11" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="5"/>
@@ -9485,19 +9552,19 @@
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="5"/>
@@ -9520,19 +9587,19 @@
     </row>
     <row r="13" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="5"/>
@@ -9555,19 +9622,19 @@
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="5"/>
@@ -9590,19 +9657,19 @@
     </row>
     <row r="15" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="5"/>
@@ -9625,19 +9692,19 @@
     </row>
     <row r="16" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="5"/>
@@ -9660,19 +9727,19 @@
     </row>
     <row r="17" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="5"/>
@@ -9695,19 +9762,19 @@
     </row>
     <row r="18" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="5"/>
@@ -9736,13 +9803,13 @@
         <v>158</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="5"/>
@@ -9765,19 +9832,19 @@
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="5"/>
@@ -9800,19 +9867,19 @@
     </row>
     <row r="21" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="5"/>
@@ -9835,19 +9902,19 @@
     </row>
     <row r="22" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -9870,19 +9937,19 @@
     </row>
     <row r="23" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -9905,19 +9972,19 @@
     </row>
     <row r="24" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -9940,19 +10007,19 @@
     </row>
     <row r="25" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -9975,19 +10042,19 @@
     </row>
     <row r="26" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -10010,19 +10077,19 @@
     </row>
     <row r="27" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -10045,19 +10112,19 @@
     </row>
     <row r="28" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -10080,19 +10147,19 @@
     </row>
     <row r="29" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
@@ -10115,19 +10182,19 @@
     </row>
     <row r="30" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>170</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -10150,19 +10217,19 @@
     </row>
     <row r="31" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -10185,19 +10252,19 @@
     </row>
     <row r="32" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -10220,19 +10287,19 @@
     </row>
     <row r="33" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
@@ -10255,19 +10322,19 @@
     </row>
     <row r="34" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -10290,19 +10357,19 @@
     </row>
     <row r="35" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -10325,19 +10392,19 @@
     </row>
     <row r="36" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
@@ -10360,19 +10427,19 @@
     </row>
     <row r="37" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
@@ -10991,7 +11058,7 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE156C8C-BCC0-4DA3-8E5D-39D84D39BD66}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394EEC25-CE89-4FD5-9AC7-B1FABCE35FCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3182,9 +3182,6 @@
     <t>Voluntary termination of pregnancy</t>
   </si>
   <si>
-    <t>orgweb</t>
-  </si>
-  <si>
     <t>www.asociacionrealidades.org</t>
   </si>
   <si>
@@ -3411,6 +3408,9 @@
   </si>
   <si>
     <t>Translation / Mediation</t>
+  </si>
+  <si>
+    <t>orgWeb</t>
   </si>
 </sst>
 </file>
@@ -4001,9 +4001,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4048,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1004</v>
+        <v>1080</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -4177,7 +4177,7 @@
       <c r="W2" s="19"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="19" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Z2" s="22" t="s">
         <v>882</v>
@@ -4252,7 +4252,7 @@
         <v>119</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Z3" s="22" t="s">
         <v>980</v>
@@ -4325,7 +4325,7 @@
         <v>133</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Z4" s="22" t="s">
         <v>884</v>
@@ -4400,13 +4400,13 @@
         <v>140</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="Z5" s="22" t="s">
         <v>884</v>
       </c>
       <c r="AA5" s="23" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4469,7 +4469,7 @@
       <c r="W6" s="19"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="19" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Z6" s="22" t="s">
         <v>886</v>
@@ -4544,7 +4544,7 @@
         <v>863</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="Z7" s="22" t="s">
         <v>888</v>
@@ -4623,7 +4623,7 @@
         <v>210</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="Z8" s="22" t="s">
         <v>982</v>
@@ -4690,7 +4690,7 @@
       <c r="W9" s="19"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="Z9" s="22" t="s">
         <v>886</v>
@@ -4713,7 +4713,7 @@
         <v>221</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>222</v>
@@ -4765,7 +4765,7 @@
         <v>232</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="Z10" s="22" t="s">
         <v>985</v>
@@ -4834,7 +4834,7 @@
       <c r="W11" s="19"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="19" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="Z11" s="22" t="s">
         <v>890</v>
@@ -4905,7 +4905,7 @@
         <v>248</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="Z12" s="22" t="s">
         <v>892</v>
@@ -4982,7 +4982,7 @@
         <v>257</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="Z13" s="22" t="s">
         <v>894</v>
@@ -5047,7 +5047,7 @@
       <c r="W14" s="19"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="19" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="Z14" s="22" t="s">
         <v>896</v>
@@ -5116,7 +5116,7 @@
       <c r="W15" s="19"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="19" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="Z15" s="22" t="s">
         <v>898</v>
@@ -5264,7 +5264,7 @@
         <v>315</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Z17" s="22" t="s">
         <v>971</v>
@@ -5331,7 +5331,7 @@
       <c r="W18" s="19"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="19" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="Z18" s="22" t="s">
         <v>902</v>
@@ -5404,7 +5404,7 @@
         <v>359</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="Z19" s="22" t="s">
         <v>988</v>
@@ -5479,7 +5479,7 @@
         <v>375</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="Z20" s="22" t="s">
         <v>904</v>
@@ -5554,7 +5554,7 @@
         <v>359</v>
       </c>
       <c r="Y21" s="25" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Z21" s="22" t="s">
         <v>906</v>
@@ -5629,7 +5629,7 @@
         <v>468</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="Z22" s="22" t="s">
         <v>990</v>
@@ -5698,7 +5698,7 @@
       <c r="W23" s="19"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="19" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="Z23" s="22" t="s">
         <v>908</v>
@@ -5775,7 +5775,7 @@
         <v>487</v>
       </c>
       <c r="Y24" s="19" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="Z24" s="22" t="s">
         <v>910</v>
@@ -5852,7 +5852,7 @@
         <v>487</v>
       </c>
       <c r="Y25" s="19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Z25" s="22" t="s">
         <v>912</v>
@@ -5931,7 +5931,7 @@
         <v>501</v>
       </c>
       <c r="Y26" s="19" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Z26" s="22" t="s">
         <v>914</v>
@@ -6012,7 +6012,7 @@
         <v>512</v>
       </c>
       <c r="Y27" s="19" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Z27" s="22" t="s">
         <v>916</v>
@@ -6089,7 +6089,7 @@
         <v>523</v>
       </c>
       <c r="Y28" s="19" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Z28" s="22" t="s">
         <v>917</v>
@@ -6166,7 +6166,7 @@
         <v>533</v>
       </c>
       <c r="Y29" s="19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Z29" s="22" t="s">
         <v>919</v>
@@ -6397,7 +6397,7 @@
         <v>557</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Z32" s="22" t="s">
         <v>925</v>
@@ -6551,7 +6551,7 @@
         <v>574</v>
       </c>
       <c r="Y34" s="19" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Z34" s="22" t="s">
         <v>994</v>
@@ -6626,7 +6626,7 @@
         <v>581</v>
       </c>
       <c r="Y35" s="19" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Z35" s="22" t="s">
         <v>927</v>
@@ -6701,7 +6701,7 @@
         <v>588</v>
       </c>
       <c r="Y36" s="19" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Z36" s="22" t="s">
         <v>929</v>
@@ -6778,7 +6778,7 @@
         <v>599</v>
       </c>
       <c r="Y37" s="19" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Z37" s="22" t="s">
         <v>931</v>
@@ -6853,7 +6853,7 @@
         <v>611</v>
       </c>
       <c r="Y38" s="19" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="Z38" s="22" t="s">
         <v>933</v>
@@ -6926,7 +6926,7 @@
         <v>620</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Z39" s="22" t="s">
         <v>935</v>
@@ -7003,7 +7003,7 @@
         <v>627</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="Z40" s="22" t="s">
         <v>937</v>
@@ -7076,7 +7076,7 @@
         <v>634</v>
       </c>
       <c r="Y41" s="19" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Z41" s="22" t="s">
         <v>939</v>
@@ -7153,7 +7153,7 @@
         <v>873</v>
       </c>
       <c r="Y42" s="19" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="Z42" s="22" t="s">
         <v>941</v>
@@ -7222,7 +7222,7 @@
       <c r="W43" s="19"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="19" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="Z43" s="22" t="s">
         <v>996</v>
@@ -7295,7 +7295,7 @@
         <v>659</v>
       </c>
       <c r="Y44" s="19" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Z44" s="22" t="s">
         <v>943</v>
@@ -7370,7 +7370,7 @@
         <v>670</v>
       </c>
       <c r="Y45" s="19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Z45" s="22" t="s">
         <v>945</v>
@@ -7439,7 +7439,7 @@
       <c r="W46" s="19"/>
       <c r="X46" s="16"/>
       <c r="Y46" s="19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Z46" s="22" t="s">
         <v>947</v>
@@ -7514,7 +7514,7 @@
         <v>683</v>
       </c>
       <c r="Y47" s="19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="Z47" s="22" t="s">
         <v>949</v>
@@ -7589,7 +7589,7 @@
         <v>692</v>
       </c>
       <c r="Y48" s="19" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="Z48" s="22" t="s">
         <v>951</v>
@@ -7666,7 +7666,7 @@
         <v>700</v>
       </c>
       <c r="Y49" s="19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="Z49" s="22" t="s">
         <v>953</v>
@@ -7741,7 +7741,7 @@
         <v>711</v>
       </c>
       <c r="Y50" s="19" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Z50" s="22" t="s">
         <v>998</v>
@@ -7816,7 +7816,7 @@
         <v>720</v>
       </c>
       <c r="Y51" s="19" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Z51" s="22" t="s">
         <v>955</v>
@@ -7895,7 +7895,7 @@
         <v>732</v>
       </c>
       <c r="Y52" s="19" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Z52" s="22" t="s">
         <v>957</v>
@@ -7972,7 +7972,7 @@
         <v>745</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Z53" s="22" t="s">
         <v>959</v>
@@ -8043,7 +8043,7 @@
       <c r="W54" s="19"/>
       <c r="X54" s="16"/>
       <c r="Y54" s="19" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Z54" s="22" t="s">
         <v>961</v>
@@ -8120,7 +8120,7 @@
         <v>765</v>
       </c>
       <c r="Y55" s="19" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Z55" s="22" t="s">
         <v>963</v>
@@ -8197,7 +8197,7 @@
         <v>779</v>
       </c>
       <c r="Y56" s="19" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="Z56" s="22" t="s">
         <v>978</v>
@@ -8276,7 +8276,7 @@
         <v>787</v>
       </c>
       <c r="Y57" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Z57" s="22" t="s">
         <v>1000</v>
@@ -8299,7 +8299,7 @@
         <v>789</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>782</v>
@@ -8355,7 +8355,7 @@
         <v>794</v>
       </c>
       <c r="Y58" s="19" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Z58" s="22" t="s">
         <v>1000</v>
@@ -8430,7 +8430,7 @@
         <v>804</v>
       </c>
       <c r="Y59" s="19" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Z59" s="22" t="s">
         <v>965</v>
@@ -8505,7 +8505,7 @@
         <v>813</v>
       </c>
       <c r="Y60" s="19" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="Z60" s="22" t="s">
         <v>967</v>
@@ -8582,7 +8582,7 @@
         <v>821</v>
       </c>
       <c r="Y61" s="19" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Z61" s="22" t="s">
         <v>969</v>
@@ -8659,7 +8659,7 @@
         <v>829</v>
       </c>
       <c r="Y62" s="19" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Z62" s="22" t="s">
         <v>976</v>
@@ -8732,7 +8732,7 @@
         <v>836</v>
       </c>
       <c r="Y63" s="19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z63" s="22" t="s">
         <v>971</v>
@@ -8805,7 +8805,7 @@
         <v>848</v>
       </c>
       <c r="Y64" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z64" s="22" t="s">
         <v>973</v>
@@ -8878,7 +8878,7 @@
         <v>857</v>
       </c>
       <c r="Y65" s="19" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Z65" s="22" t="s">
         <v>973</v>
@@ -8903,7 +8903,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8935,7 +8935,7 @@
         <v>31</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8955,7 +8955,7 @@
         <v>157</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8975,7 +8975,7 @@
         <v>157</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8995,7 +8995,7 @@
         <v>157</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9015,7 +9015,7 @@
         <v>157</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9035,7 +9035,7 @@
         <v>157</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9043,10 +9043,10 @@
         <v>181</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>182</v>
@@ -9055,7 +9055,7 @@
         <v>157</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9063,10 +9063,10 @@
         <v>185</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>187</v>
@@ -9075,7 +9075,7 @@
         <v>157</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9086,7 +9086,7 @@
         <v>189</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>190</v>
@@ -9095,7 +9095,7 @@
         <v>157</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9115,7 +9115,7 @@
         <v>157</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -9135,7 +9135,7 @@
         <v>157</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>

--- a/excel-to-json/data.xlsx
+++ b/excel-to-json/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Carlos\MadridForAll\madrid-for-all\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E9940-112E-48E7-BE67-97AC21E09B19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F2C27-131B-4AEA-A66C-A8F0B854EF86}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3992,9 +3992,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
